--- a/Input/Tier_Classification_of_SDG_Indicators_29_Mar_2021_web.xlsx
+++ b/Input/Tier_Classification_of_SDG_Indicators_29_Mar_2021_web.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul.Pacheco2\United Nations\Yongyi Min - Y_SDG shared\IAEG-SDGs\Indicator Implementation\Tier Classification\2.Table Updates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\sdg_tier_classifications\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="13_ncr:1_{71216DD0-6810-4FED-A974-AA789D6CC425}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{22F8BA87-7207-4FFA-813F-46D240F998AA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B420E03-7DC3-40E6-877A-BDC3F401331B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="1" r:id="rId1"/>
-    <sheet name="Updated Tier classification.v1" sheetId="9" state="hidden" r:id="rId2"/>
+    <sheet name="Updated Tier classification.v1" sheetId="9" r:id="rId2"/>
     <sheet name="Introduction (new)" sheetId="7" r:id="rId3"/>
     <sheet name="Past updates (since 2016)" sheetId="11" r:id="rId4"/>
     <sheet name="Updated Tier classification" sheetId="10" r:id="rId5"/>
-    <sheet name="2020 Review round deletions" sheetId="8" state="hidden" r:id="rId6"/>
+    <sheet name="2020 Review round deletions" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2020 Review round deletions'!$A$2:$G$7</definedName>
@@ -6190,6 +6190,18 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6216,18 +6228,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="73">
@@ -6612,23 +6612,23 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="134.42578125" customWidth="1"/>
+    <col min="1" max="1" width="134.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="80" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="80"/>
     </row>
-    <row r="3" spans="1:1" ht="251.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="251.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="80"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="55"/>
     </row>
   </sheetData>
@@ -6670,33 +6670,33 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="40.28515625" style="47" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="40.33203125" style="47" customWidth="1"/>
     <col min="9" max="9" width="11" style="6" customWidth="1"/>
-    <col min="10" max="11" width="8.85546875" style="6"/>
-    <col min="12" max="16384" width="8.85546875" style="7"/>
+    <col min="10" max="11" width="8.88671875" style="6"/>
+    <col min="12" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="27" x14ac:dyDescent="0.35">
-      <c r="B1" s="93" t="s">
+    <row r="1" spans="1:18" ht="27.6" x14ac:dyDescent="0.45">
+      <c r="B1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-    </row>
-    <row r="2" spans="1:18" s="10" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+    </row>
+    <row r="2" spans="1:18" s="10" customFormat="1" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -6725,21 +6725,21 @@
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="1:18" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="90" t="s">
+    <row r="3" spans="1:18" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="92"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="83"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
     </row>
-    <row r="4" spans="1:18" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>10</v>
       </c>
@@ -6775,7 +6775,7 @@
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
     </row>
-    <row r="5" spans="1:18" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>18</v>
       </c>
@@ -6805,7 +6805,7 @@
       <c r="K5" s="22"/>
       <c r="N5" s="22"/>
     </row>
-    <row r="6" spans="1:18" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>23</v>
       </c>
@@ -6835,7 +6835,7 @@
       <c r="K6" s="22"/>
       <c r="N6" s="22"/>
     </row>
-    <row r="7" spans="1:18" s="15" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="15" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>29</v>
       </c>
@@ -6865,7 +6865,7 @@
       <c r="K7" s="22"/>
       <c r="N7" s="22"/>
     </row>
-    <row r="8" spans="1:18" s="15" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="15" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>33</v>
       </c>
@@ -6895,7 +6895,7 @@
       <c r="K8" s="22"/>
       <c r="N8" s="22"/>
     </row>
-    <row r="9" spans="1:18" s="15" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="15" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>40</v>
       </c>
@@ -6925,7 +6925,7 @@
       <c r="K9" s="22"/>
       <c r="N9" s="22"/>
     </row>
-    <row r="10" spans="1:18" s="15" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="15" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>45</v>
       </c>
@@ -6957,7 +6957,7 @@
       <c r="K10" s="22"/>
       <c r="N10" s="22"/>
     </row>
-    <row r="11" spans="1:18" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>52</v>
       </c>
@@ -6987,7 +6987,7 @@
       <c r="K11" s="22"/>
       <c r="N11" s="22"/>
     </row>
-    <row r="12" spans="1:18" s="15" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="15" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>56</v>
       </c>
@@ -7017,7 +7017,7 @@
       <c r="K12" s="22"/>
       <c r="N12" s="22"/>
     </row>
-    <row r="13" spans="1:18" s="15" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="15" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
@@ -7047,7 +7047,7 @@
       <c r="K13" s="22"/>
       <c r="N13" s="22"/>
     </row>
-    <row r="14" spans="1:18" s="15" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="15" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>63</v>
       </c>
@@ -7073,7 +7073,7 @@
       <c r="K14" s="22"/>
       <c r="N14" s="22"/>
     </row>
-    <row r="15" spans="1:18" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>68</v>
       </c>
@@ -7103,7 +7103,7 @@
       <c r="K15" s="22"/>
       <c r="N15" s="22"/>
     </row>
-    <row r="16" spans="1:18" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>72</v>
       </c>
@@ -7131,33 +7131,33 @@
       <c r="K16" s="22"/>
       <c r="N16" s="22"/>
     </row>
-    <row r="17" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="90" t="s">
+    <row r="17" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="92" t="s">
+      <c r="C17" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="83" t="s">
         <v>22</v>
       </c>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>77</v>
       </c>
@@ -7187,7 +7187,7 @@
       <c r="K18" s="22"/>
       <c r="N18" s="22"/>
     </row>
-    <row r="19" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>81</v>
       </c>
@@ -7217,7 +7217,7 @@
       <c r="K19" s="22"/>
       <c r="N19" s="22"/>
     </row>
-    <row r="20" spans="1:14" s="15" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="15" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>84</v>
       </c>
@@ -7247,7 +7247,7 @@
       <c r="K20" s="22"/>
       <c r="N20" s="22"/>
     </row>
-    <row r="21" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>87</v>
       </c>
@@ -7277,7 +7277,7 @@
       <c r="K21" s="22"/>
       <c r="N21" s="22"/>
     </row>
-    <row r="22" spans="1:14" s="15" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="15" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>89</v>
       </c>
@@ -7301,7 +7301,7 @@
       <c r="K22" s="22"/>
       <c r="N22" s="22"/>
     </row>
-    <row r="23" spans="1:14" s="15" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="15" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>93</v>
       </c>
@@ -7331,7 +7331,7 @@
       <c r="K23" s="22"/>
       <c r="N23" s="22"/>
     </row>
-    <row r="24" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>97</v>
       </c>
@@ -7361,7 +7361,7 @@
       <c r="K24" s="22"/>
       <c r="N24" s="22"/>
     </row>
-    <row r="25" spans="1:14" s="15" customFormat="1" ht="153" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" s="15" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>99</v>
       </c>
@@ -7391,7 +7391,7 @@
       <c r="K25" s="22"/>
       <c r="N25" s="22"/>
     </row>
-    <row r="26" spans="1:14" s="15" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" s="15" customFormat="1" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>103</v>
       </c>
@@ -7423,7 +7423,7 @@
       <c r="K26" s="22"/>
       <c r="N26" s="22"/>
     </row>
-    <row r="27" spans="1:14" s="15" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="15" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>109</v>
       </c>
@@ -7453,7 +7453,7 @@
       <c r="K27" s="22"/>
       <c r="N27" s="22"/>
     </row>
-    <row r="28" spans="1:14" s="15" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" s="15" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>112</v>
       </c>
@@ -7483,7 +7483,7 @@
       <c r="K28" s="22"/>
       <c r="N28" s="22"/>
     </row>
-    <row r="29" spans="1:14" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" s="15" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>116</v>
       </c>
@@ -7513,7 +7513,7 @@
       <c r="K29" s="22"/>
       <c r="N29" s="22"/>
     </row>
-    <row r="30" spans="1:14" s="15" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" s="15" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>118</v>
       </c>
@@ -7543,7 +7543,7 @@
       <c r="K30" s="22"/>
       <c r="N30" s="22"/>
     </row>
-    <row r="31" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>123</v>
       </c>
@@ -7575,33 +7575,33 @@
       <c r="K31" s="22"/>
       <c r="N31" s="22"/>
     </row>
-    <row r="32" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="90" t="s">
+    <row r="32" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="92" t="s">
+      <c r="C32" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="83" t="s">
         <v>22</v>
       </c>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
       <c r="K32" s="14"/>
     </row>
-    <row r="33" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>128</v>
       </c>
@@ -7631,7 +7631,7 @@
       <c r="K33" s="22"/>
       <c r="N33" s="22"/>
     </row>
-    <row r="34" spans="1:14" s="15" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" s="15" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>134</v>
       </c>
@@ -7661,7 +7661,7 @@
       <c r="K34" s="22"/>
       <c r="N34" s="22"/>
     </row>
-    <row r="35" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>137</v>
       </c>
@@ -7691,7 +7691,7 @@
       <c r="K35" s="22"/>
       <c r="N35" s="22"/>
     </row>
-    <row r="36" spans="1:14" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>141</v>
       </c>
@@ -7721,7 +7721,7 @@
       <c r="K36" s="22"/>
       <c r="N36" s="22"/>
     </row>
-    <row r="37" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
         <v>143</v>
       </c>
@@ -7751,7 +7751,7 @@
       <c r="K37" s="22"/>
       <c r="N37" s="22"/>
     </row>
-    <row r="38" spans="1:14" s="15" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" s="15" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
         <v>148</v>
       </c>
@@ -7781,7 +7781,7 @@
       <c r="K38" s="22"/>
       <c r="N38" s="22"/>
     </row>
-    <row r="39" spans="1:14" s="15" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" s="15" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
         <v>150</v>
       </c>
@@ -7811,7 +7811,7 @@
       <c r="K39" s="22"/>
       <c r="N39" s="22"/>
     </row>
-    <row r="40" spans="1:14" s="15" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" s="15" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>152</v>
       </c>
@@ -7841,7 +7841,7 @@
       <c r="K40" s="22"/>
       <c r="N40" s="22"/>
     </row>
-    <row r="41" spans="1:14" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" s="15" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
         <v>155</v>
       </c>
@@ -7871,7 +7871,7 @@
       <c r="K41" s="22"/>
       <c r="N41" s="22"/>
     </row>
-    <row r="42" spans="1:14" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
         <v>157</v>
       </c>
@@ -7901,7 +7901,7 @@
       <c r="K42" s="22"/>
       <c r="N42" s="22"/>
     </row>
-    <row r="43" spans="1:14" s="15" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" s="15" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
         <v>160</v>
       </c>
@@ -7931,7 +7931,7 @@
       <c r="K43" s="22"/>
       <c r="N43" s="22"/>
     </row>
-    <row r="44" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
         <v>162</v>
       </c>
@@ -7961,7 +7961,7 @@
       <c r="K44" s="22"/>
       <c r="N44" s="22"/>
     </row>
-    <row r="45" spans="1:14" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" s="15" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
         <v>167</v>
       </c>
@@ -7991,7 +7991,7 @@
       <c r="K45" s="22"/>
       <c r="N45" s="22"/>
     </row>
-    <row r="46" spans="1:14" s="15" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" s="15" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
         <v>169</v>
       </c>
@@ -8021,7 +8021,7 @@
       <c r="K46" s="22"/>
       <c r="N46" s="22"/>
     </row>
-    <row r="47" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
         <v>173</v>
       </c>
@@ -8051,7 +8051,7 @@
       <c r="K47" s="22"/>
       <c r="N47" s="22"/>
     </row>
-    <row r="48" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>178</v>
       </c>
@@ -8081,7 +8081,7 @@
       <c r="K48" s="22"/>
       <c r="N48" s="22"/>
     </row>
-    <row r="49" spans="1:14" s="15" customFormat="1" ht="331.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" s="15" customFormat="1" ht="343.2" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
         <v>181</v>
       </c>
@@ -8111,7 +8111,7 @@
       <c r="K49" s="22"/>
       <c r="N49" s="22"/>
     </row>
-    <row r="50" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
         <v>186</v>
       </c>
@@ -8141,7 +8141,7 @@
       <c r="K50" s="22"/>
       <c r="N50" s="22"/>
     </row>
-    <row r="51" spans="1:14" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
         <v>190</v>
       </c>
@@ -8171,7 +8171,7 @@
       <c r="K51" s="22"/>
       <c r="N51" s="22"/>
     </row>
-    <row r="52" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
         <v>193</v>
       </c>
@@ -8201,7 +8201,7 @@
       <c r="K52" s="22"/>
       <c r="N52" s="22"/>
     </row>
-    <row r="53" spans="1:14" s="15" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" s="15" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
         <v>195</v>
       </c>
@@ -8231,7 +8231,7 @@
       <c r="K53" s="22"/>
       <c r="N53" s="22"/>
     </row>
-    <row r="54" spans="1:14" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
         <v>197</v>
       </c>
@@ -8261,7 +8261,7 @@
       <c r="K54" s="22"/>
       <c r="N54" s="22"/>
     </row>
-    <row r="55" spans="1:14" s="15" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" s="15" customFormat="1" ht="184.8" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
         <v>201</v>
       </c>
@@ -8291,7 +8291,7 @@
       <c r="K55" s="22"/>
       <c r="N55" s="22"/>
     </row>
-    <row r="56" spans="1:14" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" s="15" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
         <v>206</v>
       </c>
@@ -8321,7 +8321,7 @@
       <c r="K56" s="22"/>
       <c r="N56" s="22"/>
     </row>
-    <row r="57" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
         <v>208</v>
       </c>
@@ -8351,7 +8351,7 @@
       <c r="K57" s="22"/>
       <c r="N57" s="22"/>
     </row>
-    <row r="58" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
         <v>211</v>
       </c>
@@ -8381,7 +8381,7 @@
       <c r="K58" s="22"/>
       <c r="N58" s="22"/>
     </row>
-    <row r="59" spans="1:14" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A59" s="15" t="s">
         <v>214</v>
       </c>
@@ -8411,7 +8411,7 @@
       <c r="K59" s="22"/>
       <c r="N59" s="22"/>
     </row>
-    <row r="60" spans="1:14" s="15" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" s="15" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
         <v>217</v>
       </c>
@@ -8437,33 +8437,33 @@
       <c r="K60" s="22"/>
       <c r="N60" s="22"/>
     </row>
-    <row r="61" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="90" t="s">
+    <row r="61" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="81" t="s">
         <v>220</v>
       </c>
-      <c r="C61" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="D61" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E61" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="F61" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H61" s="92" t="s">
+      <c r="C61" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" s="83" t="s">
         <v>22</v>
       </c>
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
       <c r="K61" s="14"/>
     </row>
-    <row r="62" spans="1:14" s="15" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" s="15" customFormat="1" ht="184.8" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
         <v>221</v>
       </c>
@@ -8493,7 +8493,7 @@
       <c r="K62" s="22"/>
       <c r="N62" s="22"/>
     </row>
-    <row r="63" spans="1:14" s="15" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" s="15" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
         <v>226</v>
       </c>
@@ -8517,7 +8517,7 @@
       <c r="K63" s="22"/>
       <c r="N63" s="22"/>
     </row>
-    <row r="64" spans="1:14" s="15" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" s="15" customFormat="1" ht="250.8" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
         <v>229</v>
       </c>
@@ -8549,7 +8549,7 @@
       <c r="K64" s="22"/>
       <c r="N64" s="22"/>
     </row>
-    <row r="65" spans="1:14" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" s="15" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
         <v>234</v>
       </c>
@@ -8579,7 +8579,7 @@
       <c r="K65" s="22"/>
       <c r="N65" s="22"/>
     </row>
-    <row r="66" spans="1:14" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="s">
         <v>237</v>
       </c>
@@ -8609,7 +8609,7 @@
       <c r="K66" s="22"/>
       <c r="N66" s="22"/>
     </row>
-    <row r="67" spans="1:14" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
         <v>241</v>
       </c>
@@ -8639,7 +8639,7 @@
       <c r="K67" s="22"/>
       <c r="N67" s="22"/>
     </row>
-    <row r="68" spans="1:14" s="15" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" s="15" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
         <v>245</v>
       </c>
@@ -8669,7 +8669,7 @@
       <c r="K68" s="22"/>
       <c r="N68" s="22"/>
     </row>
-    <row r="69" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
         <v>251</v>
       </c>
@@ -8699,7 +8699,7 @@
       <c r="K69" s="22"/>
       <c r="N69" s="22"/>
     </row>
-    <row r="70" spans="1:14" s="15" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" s="15" customFormat="1" ht="184.8" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
         <v>255</v>
       </c>
@@ -8729,7 +8729,7 @@
       <c r="K70" s="22"/>
       <c r="N70" s="22"/>
     </row>
-    <row r="71" spans="1:14" s="15" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" s="15" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A71" s="15" t="s">
         <v>260</v>
       </c>
@@ -8761,7 +8761,7 @@
       <c r="K71" s="22"/>
       <c r="N71" s="22"/>
     </row>
-    <row r="72" spans="1:14" s="15" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" s="15" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
         <v>266</v>
       </c>
@@ -8791,7 +8791,7 @@
       <c r="K72" s="22"/>
       <c r="N72" s="22"/>
     </row>
-    <row r="73" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
         <v>269</v>
       </c>
@@ -8823,33 +8823,33 @@
       <c r="K73" s="22"/>
       <c r="N73" s="22"/>
     </row>
-    <row r="74" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="90" t="s">
+    <row r="74" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="81" t="s">
         <v>273</v>
       </c>
-      <c r="C74" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="D74" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E74" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="F74" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H74" s="92" t="s">
+      <c r="C74" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H74" s="83" t="s">
         <v>22</v>
       </c>
       <c r="I74" s="14"/>
       <c r="J74" s="14"/>
       <c r="K74" s="14"/>
     </row>
-    <row r="75" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A75" s="15" t="s">
         <v>274</v>
       </c>
@@ -8879,7 +8879,7 @@
       <c r="K75" s="22"/>
       <c r="N75" s="22"/>
     </row>
-    <row r="76" spans="1:14" s="15" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" s="15" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A76" s="15" t="s">
         <v>280</v>
       </c>
@@ -8909,7 +8909,7 @@
       <c r="K76" s="22"/>
       <c r="N76" s="22"/>
     </row>
-    <row r="77" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
         <v>285</v>
       </c>
@@ -8939,7 +8939,7 @@
       <c r="K77" s="22"/>
       <c r="N77" s="22"/>
     </row>
-    <row r="78" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
         <v>288</v>
       </c>
@@ -8969,7 +8969,7 @@
       <c r="K78" s="22"/>
       <c r="N78" s="22"/>
     </row>
-    <row r="79" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
         <v>293</v>
       </c>
@@ -8999,7 +8999,7 @@
       <c r="K79" s="22"/>
       <c r="N79" s="22"/>
     </row>
-    <row r="80" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
         <v>295</v>
       </c>
@@ -9029,7 +9029,7 @@
       <c r="K80" s="22"/>
       <c r="N80" s="22"/>
     </row>
-    <row r="81" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A81" s="15" t="s">
         <v>299</v>
       </c>
@@ -9059,7 +9059,7 @@
       <c r="K81" s="22"/>
       <c r="N81" s="22"/>
     </row>
-    <row r="82" spans="1:14" s="15" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" s="15" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A82" s="15" t="s">
         <v>305</v>
       </c>
@@ -9089,7 +9089,7 @@
       <c r="K82" s="22"/>
       <c r="N82" s="22"/>
     </row>
-    <row r="83" spans="1:14" s="15" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" s="15" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
         <v>307</v>
       </c>
@@ -9119,7 +9119,7 @@
       <c r="K83" s="22"/>
       <c r="N83" s="22"/>
     </row>
-    <row r="84" spans="1:14" s="15" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" s="15" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
         <v>311</v>
       </c>
@@ -9149,7 +9149,7 @@
       <c r="K84" s="22"/>
       <c r="N84" s="22"/>
     </row>
-    <row r="85" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
         <v>315</v>
       </c>
@@ -9179,7 +9179,7 @@
       <c r="K85" s="22"/>
       <c r="N85" s="22"/>
     </row>
-    <row r="86" spans="1:14" s="15" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" s="15" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
         <v>320</v>
       </c>
@@ -9209,7 +9209,7 @@
       <c r="K86" s="22"/>
       <c r="N86" s="22"/>
     </row>
-    <row r="87" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A87" s="15" t="s">
         <v>324</v>
       </c>
@@ -9239,7 +9239,7 @@
       <c r="K87" s="22"/>
       <c r="N87" s="22"/>
     </row>
-    <row r="88" spans="1:14" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A88" s="15" t="s">
         <v>329</v>
       </c>
@@ -9269,33 +9269,33 @@
       <c r="K88" s="22"/>
       <c r="N88" s="22"/>
     </row>
-    <row r="89" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="90" t="s">
+    <row r="89" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="81" t="s">
         <v>333</v>
       </c>
-      <c r="C89" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="D89" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E89" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="F89" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H89" s="92" t="s">
+      <c r="C89" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E89" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F89" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H89" s="83" t="s">
         <v>22</v>
       </c>
       <c r="I89" s="14"/>
       <c r="J89" s="14"/>
       <c r="K89" s="14"/>
     </row>
-    <row r="90" spans="1:14" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" s="15" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
         <v>334</v>
       </c>
@@ -9325,7 +9325,7 @@
       <c r="K90" s="22"/>
       <c r="N90" s="22"/>
     </row>
-    <row r="91" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
         <v>339</v>
       </c>
@@ -9355,7 +9355,7 @@
       <c r="K91" s="22"/>
       <c r="N91" s="22"/>
     </row>
-    <row r="92" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A92" s="15" t="s">
         <v>342</v>
       </c>
@@ -9385,7 +9385,7 @@
       <c r="K92" s="22"/>
       <c r="N92" s="22"/>
     </row>
-    <row r="93" spans="1:14" s="15" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" s="15" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A93" s="15" t="s">
         <v>348</v>
       </c>
@@ -9415,7 +9415,7 @@
       <c r="K93" s="22"/>
       <c r="N93" s="22"/>
     </row>
-    <row r="94" spans="1:14" s="15" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" s="15" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
         <v>351</v>
       </c>
@@ -9445,7 +9445,7 @@
       <c r="K94" s="22"/>
       <c r="N94" s="22"/>
     </row>
-    <row r="95" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
         <v>356</v>
       </c>
@@ -9475,7 +9475,7 @@
       <c r="K95" s="22"/>
       <c r="N95" s="22"/>
     </row>
-    <row r="96" spans="1:14" s="15" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" s="15" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
         <v>359</v>
       </c>
@@ -9505,7 +9505,7 @@
       <c r="K96" s="22"/>
       <c r="N96" s="22"/>
     </row>
-    <row r="97" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
         <v>364</v>
       </c>
@@ -9535,7 +9535,7 @@
       <c r="K97" s="22"/>
       <c r="N97" s="22"/>
     </row>
-    <row r="98" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
         <v>368</v>
       </c>
@@ -9565,7 +9565,7 @@
       <c r="K98" s="22"/>
       <c r="N98" s="22"/>
     </row>
-    <row r="99" spans="1:14" s="15" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" s="15" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
         <v>374</v>
       </c>
@@ -9595,7 +9595,7 @@
       <c r="K99" s="22"/>
       <c r="N99" s="22"/>
     </row>
-    <row r="100" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
         <v>379</v>
       </c>
@@ -9625,33 +9625,33 @@
       <c r="K100" s="22"/>
       <c r="N100" s="22"/>
     </row>
-    <row r="101" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="90" t="s">
+    <row r="101" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="81" t="s">
         <v>382</v>
       </c>
-      <c r="C101" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="D101" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E101" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="F101" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G101" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H101" s="92" t="s">
+      <c r="C101" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E101" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F101" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G101" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H101" s="83" t="s">
         <v>22</v>
       </c>
       <c r="I101" s="14"/>
       <c r="J101" s="14"/>
       <c r="K101" s="14"/>
     </row>
-    <row r="102" spans="1:14" s="15" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" s="15" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
         <v>383</v>
       </c>
@@ -9681,7 +9681,7 @@
       <c r="K102" s="22"/>
       <c r="N102" s="22"/>
     </row>
-    <row r="103" spans="1:14" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" s="15" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
         <v>387</v>
       </c>
@@ -9711,7 +9711,7 @@
       <c r="K103" s="22"/>
       <c r="N103" s="22"/>
     </row>
-    <row r="104" spans="1:14" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" s="15" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
         <v>390</v>
       </c>
@@ -9741,7 +9741,7 @@
       <c r="K104" s="22"/>
       <c r="N104" s="22"/>
     </row>
-    <row r="105" spans="1:14" s="15" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" s="15" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A105" s="15" t="s">
         <v>395</v>
       </c>
@@ -9771,7 +9771,7 @@
       <c r="K105" s="22"/>
       <c r="N105" s="22"/>
     </row>
-    <row r="106" spans="1:14" s="15" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" s="15" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A106" s="15" t="s">
         <v>399</v>
       </c>
@@ -9801,7 +9801,7 @@
       <c r="K106" s="22"/>
       <c r="N106" s="22"/>
     </row>
-    <row r="107" spans="1:14" s="15" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" s="15" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A107" s="15" t="s">
         <v>405</v>
       </c>
@@ -9829,33 +9829,33 @@
       <c r="K107" s="22"/>
       <c r="N107" s="22"/>
     </row>
-    <row r="108" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="90" t="s">
+    <row r="108" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="81" t="s">
         <v>410</v>
       </c>
-      <c r="C108" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="D108" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E108" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="F108" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G108" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H108" s="92" t="s">
+      <c r="C108" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D108" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E108" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F108" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G108" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H108" s="83" t="s">
         <v>22</v>
       </c>
       <c r="I108" s="14"/>
       <c r="J108" s="14"/>
       <c r="K108" s="14"/>
     </row>
-    <row r="109" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A109" s="15" t="s">
         <v>411</v>
       </c>
@@ -9885,7 +9885,7 @@
       <c r="K109" s="22"/>
       <c r="N109" s="22"/>
     </row>
-    <row r="110" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A110" s="15" t="s">
         <v>415</v>
       </c>
@@ -9915,7 +9915,7 @@
       <c r="K110" s="22"/>
       <c r="N110" s="22"/>
     </row>
-    <row r="111" spans="1:14" s="15" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" s="15" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A111" s="15" t="s">
         <v>419</v>
       </c>
@@ -9945,7 +9945,7 @@
       <c r="K111" s="22"/>
       <c r="N111" s="22"/>
     </row>
-    <row r="112" spans="1:14" s="15" customFormat="1" ht="204" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" s="15" customFormat="1" ht="211.2" x14ac:dyDescent="0.3">
       <c r="A112" s="15" t="s">
         <v>423</v>
       </c>
@@ -9975,7 +9975,7 @@
       <c r="K112" s="22"/>
       <c r="N112" s="22"/>
     </row>
-    <row r="113" spans="1:14" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A113" s="15" t="s">
         <v>427</v>
       </c>
@@ -10005,7 +10005,7 @@
       <c r="K113" s="22"/>
       <c r="N113" s="22"/>
     </row>
-    <row r="114" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A114" s="15" t="s">
         <v>430</v>
       </c>
@@ -10035,7 +10035,7 @@
       <c r="K114" s="22"/>
       <c r="N114" s="22"/>
     </row>
-    <row r="115" spans="1:14" s="15" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" s="15" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A115" s="15" t="s">
         <v>434</v>
       </c>
@@ -10065,7 +10065,7 @@
       <c r="K115" s="22"/>
       <c r="N115" s="22"/>
     </row>
-    <row r="116" spans="1:14" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" s="15" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A116" s="15" t="s">
         <v>436</v>
       </c>
@@ -10095,7 +10095,7 @@
       <c r="K116" s="22"/>
       <c r="N116" s="22"/>
     </row>
-    <row r="117" spans="1:14" s="15" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" s="15" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A117" s="15" t="s">
         <v>439</v>
       </c>
@@ -10125,7 +10125,7 @@
       <c r="K117" s="22"/>
       <c r="N117" s="22"/>
     </row>
-    <row r="118" spans="1:14" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A118" s="15" t="s">
         <v>443</v>
       </c>
@@ -10155,7 +10155,7 @@
       <c r="K118" s="22"/>
       <c r="N118" s="22"/>
     </row>
-    <row r="119" spans="1:14" s="15" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" s="15" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A119" s="15" t="s">
         <v>447</v>
       </c>
@@ -10185,7 +10185,7 @@
       <c r="K119" s="22"/>
       <c r="N119" s="22"/>
     </row>
-    <row r="120" spans="1:14" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" s="15" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A120" s="15" t="s">
         <v>450</v>
       </c>
@@ -10215,7 +10215,7 @@
       <c r="K120" s="22"/>
       <c r="N120" s="22"/>
     </row>
-    <row r="121" spans="1:14" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A121" s="15" t="s">
         <v>454</v>
       </c>
@@ -10245,7 +10245,7 @@
       <c r="K121" s="22"/>
       <c r="N121" s="22"/>
     </row>
-    <row r="122" spans="1:14" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A122" s="15" t="s">
         <v>459</v>
       </c>
@@ -10275,7 +10275,7 @@
       <c r="K122" s="22"/>
       <c r="N122" s="22"/>
     </row>
-    <row r="123" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A123" s="15" t="s">
         <v>461</v>
       </c>
@@ -10305,7 +10305,7 @@
       <c r="K123" s="22"/>
       <c r="N123" s="22"/>
     </row>
-    <row r="124" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A124" s="15" t="s">
         <v>465</v>
       </c>
@@ -10335,33 +10335,33 @@
       <c r="K124" s="22"/>
       <c r="N124" s="22"/>
     </row>
-    <row r="125" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="90" t="s">
+    <row r="125" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="81" t="s">
         <v>469</v>
       </c>
-      <c r="C125" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="D125" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E125" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="F125" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G125" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H125" s="92" t="s">
+      <c r="C125" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D125" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E125" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F125" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G125" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H125" s="83" t="s">
         <v>22</v>
       </c>
       <c r="I125" s="14"/>
       <c r="J125" s="14"/>
       <c r="K125" s="14"/>
     </row>
-    <row r="126" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A126" s="15" t="s">
         <v>470</v>
       </c>
@@ -10391,7 +10391,7 @@
       <c r="K126" s="22"/>
       <c r="N126" s="22"/>
     </row>
-    <row r="127" spans="1:14" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" s="15" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A127" s="15" t="s">
         <v>475</v>
       </c>
@@ -10421,7 +10421,7 @@
       <c r="K127" s="22"/>
       <c r="N127" s="22"/>
     </row>
-    <row r="128" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A128" s="15" t="s">
         <v>479</v>
       </c>
@@ -10451,7 +10451,7 @@
       <c r="K128" s="22"/>
       <c r="N128" s="22"/>
     </row>
-    <row r="129" spans="1:14" s="15" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" s="15" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A129" s="15" t="s">
         <v>483</v>
       </c>
@@ -10481,7 +10481,7 @@
       <c r="K129" s="22"/>
       <c r="N129" s="22"/>
     </row>
-    <row r="130" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A130" s="15" t="s">
         <v>485</v>
       </c>
@@ -10511,7 +10511,7 @@
       <c r="K130" s="22"/>
       <c r="N130" s="22"/>
     </row>
-    <row r="131" spans="1:14" s="15" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" s="15" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A131" s="15" t="s">
         <v>489</v>
       </c>
@@ -10541,7 +10541,7 @@
       <c r="K131" s="22"/>
       <c r="N131" s="22"/>
     </row>
-    <row r="132" spans="1:14" s="15" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" s="15" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A132" s="15" t="s">
         <v>493</v>
       </c>
@@ -10571,7 +10571,7 @@
       <c r="K132" s="22"/>
       <c r="N132" s="22"/>
     </row>
-    <row r="133" spans="1:14" s="15" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" s="15" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A133" s="15" t="s">
         <v>497</v>
       </c>
@@ -10601,7 +10601,7 @@
       <c r="K133" s="22"/>
       <c r="N133" s="22"/>
     </row>
-    <row r="134" spans="1:14" s="15" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" s="15" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A134" s="15" t="s">
         <v>500</v>
       </c>
@@ -10631,7 +10631,7 @@
       <c r="K134" s="22"/>
       <c r="N134" s="22"/>
     </row>
-    <row r="135" spans="1:14" s="15" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" s="15" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A135" s="15" t="s">
         <v>502</v>
       </c>
@@ -10661,7 +10661,7 @@
       <c r="K135" s="22"/>
       <c r="N135" s="22"/>
     </row>
-    <row r="136" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A136" s="15" t="s">
         <v>505</v>
       </c>
@@ -10691,7 +10691,7 @@
       <c r="K136" s="22"/>
       <c r="N136" s="22"/>
     </row>
-    <row r="137" spans="1:14" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A137" s="15" t="s">
         <v>508</v>
       </c>
@@ -10721,33 +10721,33 @@
       <c r="K137" s="22"/>
       <c r="N137" s="22"/>
     </row>
-    <row r="138" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="90" t="s">
+    <row r="138" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="81" t="s">
         <v>511</v>
       </c>
-      <c r="C138" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="D138" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E138" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="F138" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G138" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H138" s="92" t="s">
+      <c r="C138" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D138" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E138" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F138" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G138" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H138" s="83" t="s">
         <v>22</v>
       </c>
       <c r="I138" s="14"/>
       <c r="J138" s="14"/>
       <c r="K138" s="14"/>
     </row>
-    <row r="139" spans="1:14" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A139" s="15" t="s">
         <v>512</v>
       </c>
@@ -10777,7 +10777,7 @@
       <c r="K139" s="22"/>
       <c r="N139" s="22"/>
     </row>
-    <row r="140" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A140" s="15" t="s">
         <v>515</v>
       </c>
@@ -10807,7 +10807,7 @@
       <c r="K140" s="22"/>
       <c r="N140" s="22"/>
     </row>
-    <row r="141" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A141" s="15" t="s">
         <v>519</v>
       </c>
@@ -10837,7 +10837,7 @@
       <c r="K141" s="22"/>
       <c r="N141" s="22"/>
     </row>
-    <row r="142" spans="1:14" s="15" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" s="15" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A142" s="15" t="s">
         <v>523</v>
       </c>
@@ -10869,7 +10869,7 @@
       <c r="K142" s="22"/>
       <c r="N142" s="22"/>
     </row>
-    <row r="143" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A143" s="15" t="s">
         <v>527</v>
       </c>
@@ -10893,7 +10893,7 @@
       <c r="K143" s="22"/>
       <c r="N143" s="22"/>
     </row>
-    <row r="144" spans="1:14" s="15" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" s="15" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A144" s="15" t="s">
         <v>531</v>
       </c>
@@ -10923,7 +10923,7 @@
       <c r="K144" s="22"/>
       <c r="N144" s="22"/>
     </row>
-    <row r="145" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A145" s="15" t="s">
         <v>535</v>
       </c>
@@ -10953,7 +10953,7 @@
       <c r="K145" s="22"/>
       <c r="N145" s="22"/>
     </row>
-    <row r="146" spans="1:14" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A146" s="15" t="s">
         <v>540</v>
       </c>
@@ -10983,7 +10983,7 @@
       <c r="K146" s="22"/>
       <c r="N146" s="22"/>
     </row>
-    <row r="147" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A147" s="15" t="s">
         <v>545</v>
       </c>
@@ -11013,7 +11013,7 @@
       <c r="K147" s="22"/>
       <c r="N147" s="22"/>
     </row>
-    <row r="148" spans="1:14" s="15" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" s="15" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A148" s="15" t="s">
         <v>549</v>
       </c>
@@ -11039,7 +11039,7 @@
       <c r="K148" s="22"/>
       <c r="N148" s="22"/>
     </row>
-    <row r="149" spans="1:14" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A149" s="15" t="s">
         <v>554</v>
       </c>
@@ -11065,7 +11065,7 @@
       <c r="K149" s="22"/>
       <c r="N149" s="22"/>
     </row>
-    <row r="150" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A150" s="15" t="s">
         <v>558</v>
       </c>
@@ -11095,7 +11095,7 @@
       <c r="K150" s="22"/>
       <c r="N150" s="22"/>
     </row>
-    <row r="151" spans="1:14" s="15" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" s="15" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A151" s="15" t="s">
         <v>562</v>
       </c>
@@ -11127,7 +11127,7 @@
       <c r="K151" s="22"/>
       <c r="N151" s="22"/>
     </row>
-    <row r="152" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A152" s="15" t="s">
         <v>567</v>
       </c>
@@ -11157,33 +11157,33 @@
       <c r="K152" s="22"/>
       <c r="N152" s="22"/>
     </row>
-    <row r="153" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="90" t="s">
+    <row r="153" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="81" t="s">
         <v>571</v>
       </c>
-      <c r="C153" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="D153" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E153" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="F153" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G153" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H153" s="92" t="s">
+      <c r="C153" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D153" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E153" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F153" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G153" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H153" s="83" t="s">
         <v>22</v>
       </c>
       <c r="I153" s="14"/>
       <c r="J153" s="14"/>
       <c r="K153" s="14"/>
     </row>
-    <row r="154" spans="1:14" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" s="15" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A154" s="15" t="s">
         <v>572</v>
       </c>
@@ -11213,7 +11213,7 @@
       <c r="K154" s="22"/>
       <c r="N154" s="22"/>
     </row>
-    <row r="155" spans="1:14" s="15" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" s="15" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A155" s="15" t="s">
         <v>575</v>
       </c>
@@ -11243,7 +11243,7 @@
       <c r="K155" s="22"/>
       <c r="N155" s="22"/>
     </row>
-    <row r="156" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="s">
         <v>579</v>
       </c>
@@ -11273,7 +11273,7 @@
       <c r="K156" s="22"/>
       <c r="N156" s="22"/>
     </row>
-    <row r="157" spans="1:14" s="15" customFormat="1" ht="153" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" s="15" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A157" s="15" t="s">
         <v>582</v>
       </c>
@@ -11303,7 +11303,7 @@
       <c r="K157" s="22"/>
       <c r="N157" s="22"/>
     </row>
-    <row r="158" spans="1:14" s="15" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" s="15" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A158" s="15" t="s">
         <v>585</v>
       </c>
@@ -11333,7 +11333,7 @@
       <c r="K158" s="22"/>
       <c r="N158" s="22"/>
     </row>
-    <row r="159" spans="1:14" s="15" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" s="15" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A159" s="15" t="s">
         <v>45</v>
       </c>
@@ -11363,7 +11363,7 @@
       <c r="K159" s="22"/>
       <c r="N159" s="22"/>
     </row>
-    <row r="160" spans="1:14" s="15" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" s="15" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A160" s="15" t="s">
         <v>593</v>
       </c>
@@ -11393,7 +11393,7 @@
       <c r="K160" s="22"/>
       <c r="N160" s="22"/>
     </row>
-    <row r="161" spans="1:14" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A161" s="15" t="s">
         <v>596</v>
       </c>
@@ -11423,7 +11423,7 @@
       <c r="K161" s="22"/>
       <c r="N161" s="22"/>
     </row>
-    <row r="162" spans="1:14" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" s="15" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A162" s="15" t="s">
         <v>600</v>
       </c>
@@ -11453,7 +11453,7 @@
       <c r="K162" s="22"/>
       <c r="N162" s="22"/>
     </row>
-    <row r="163" spans="1:14" s="15" customFormat="1" ht="204" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" s="15" customFormat="1" ht="211.2" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
         <v>603</v>
       </c>
@@ -11483,7 +11483,7 @@
       <c r="K163" s="22"/>
       <c r="N163" s="22"/>
     </row>
-    <row r="164" spans="1:14" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A164" s="15" t="s">
         <v>607</v>
       </c>
@@ -11513,7 +11513,7 @@
       <c r="K164" s="22"/>
       <c r="N164" s="22"/>
     </row>
-    <row r="165" spans="1:14" s="15" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" s="15" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A165" s="15" t="s">
         <v>611</v>
       </c>
@@ -11541,7 +11541,7 @@
       <c r="K165" s="22"/>
       <c r="N165" s="22"/>
     </row>
-    <row r="166" spans="1:14" s="15" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" s="15" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A166" s="15" t="s">
         <v>56</v>
       </c>
@@ -11571,7 +11571,7 @@
       <c r="K166" s="22"/>
       <c r="N166" s="22"/>
     </row>
-    <row r="167" spans="1:14" s="15" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" s="15" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A167" s="15" t="s">
         <v>60</v>
       </c>
@@ -11601,7 +11601,7 @@
       <c r="K167" s="22"/>
       <c r="N167" s="22"/>
     </row>
-    <row r="168" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="B168" s="16" t="s">
         <v>618</v>
       </c>
@@ -11618,33 +11618,33 @@
       <c r="K168" s="22"/>
       <c r="N168" s="22"/>
     </row>
-    <row r="169" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="90" t="s">
+    <row r="169" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="81" t="s">
         <v>620</v>
       </c>
-      <c r="C169" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="D169" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E169" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="F169" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G169" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H169" s="92" t="s">
+      <c r="C169" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D169" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E169" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F169" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G169" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H169" s="83" t="s">
         <v>22</v>
       </c>
       <c r="I169" s="14"/>
       <c r="J169" s="14"/>
       <c r="K169" s="14"/>
     </row>
-    <row r="170" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A170" s="15" t="s">
         <v>621</v>
       </c>
@@ -11674,7 +11674,7 @@
       <c r="K170" s="22"/>
       <c r="N170" s="22"/>
     </row>
-    <row r="171" spans="1:14" s="15" customFormat="1" ht="204" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" s="15" customFormat="1" ht="211.2" x14ac:dyDescent="0.3">
       <c r="A171" s="15" t="s">
         <v>423</v>
       </c>
@@ -11704,7 +11704,7 @@
       <c r="K171" s="22"/>
       <c r="N171" s="22"/>
     </row>
-    <row r="172" spans="1:14" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A172" s="15" t="s">
         <v>427</v>
       </c>
@@ -11734,7 +11734,7 @@
       <c r="K172" s="22"/>
       <c r="N172" s="22"/>
     </row>
-    <row r="173" spans="1:14" s="15" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" s="15" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A173" s="15" t="s">
         <v>628</v>
       </c>
@@ -11764,7 +11764,7 @@
       <c r="K173" s="22"/>
       <c r="N173" s="22"/>
     </row>
-    <row r="174" spans="1:14" s="15" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" s="15" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A174" s="15" t="s">
         <v>633</v>
       </c>
@@ -11794,7 +11794,7 @@
       <c r="K174" s="22"/>
       <c r="N174" s="22"/>
     </row>
-    <row r="175" spans="1:14" s="15" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" s="15" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A175" s="15" t="s">
         <v>636</v>
       </c>
@@ -11824,7 +11824,7 @@
       <c r="K175" s="22"/>
       <c r="N175" s="22"/>
     </row>
-    <row r="176" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A176" s="15" t="s">
         <v>641</v>
       </c>
@@ -11854,7 +11854,7 @@
       <c r="K176" s="22"/>
       <c r="N176" s="22"/>
     </row>
-    <row r="177" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A177" s="15" t="s">
         <v>646</v>
       </c>
@@ -11884,7 +11884,7 @@
       <c r="K177" s="22"/>
       <c r="N177" s="22"/>
     </row>
-    <row r="178" spans="1:14" s="15" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" s="15" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A178" s="15" t="s">
         <v>651</v>
       </c>
@@ -11914,7 +11914,7 @@
       <c r="K178" s="22"/>
       <c r="N178" s="22"/>
     </row>
-    <row r="179" spans="1:14" s="15" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" s="15" customFormat="1" ht="184.8" x14ac:dyDescent="0.3">
       <c r="A179" s="15" t="s">
         <v>255</v>
       </c>
@@ -11944,7 +11944,7 @@
       <c r="K179" s="22"/>
       <c r="N179" s="22"/>
     </row>
-    <row r="180" spans="1:14" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A180" s="15" t="s">
         <v>405</v>
       </c>
@@ -11972,7 +11972,7 @@
       <c r="K180" s="22"/>
       <c r="N180" s="22"/>
     </row>
-    <row r="181" spans="1:14" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A181" s="15" t="s">
         <v>660</v>
       </c>
@@ -11998,7 +11998,7 @@
       <c r="K181" s="22"/>
       <c r="N181" s="22"/>
     </row>
-    <row r="182" spans="1:14" s="15" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" s="15" customFormat="1" ht="184.8" x14ac:dyDescent="0.3">
       <c r="A182" s="15" t="s">
         <v>663</v>
       </c>
@@ -12030,33 +12030,33 @@
       <c r="K182" s="22"/>
       <c r="N182" s="22"/>
     </row>
-    <row r="183" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="90" t="s">
+    <row r="183" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="81" t="s">
         <v>667</v>
       </c>
-      <c r="C183" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="D183" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E183" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="F183" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G183" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H183" s="92" t="s">
+      <c r="C183" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D183" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E183" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F183" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G183" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H183" s="83" t="s">
         <v>22</v>
       </c>
       <c r="I183" s="14"/>
       <c r="J183" s="14"/>
       <c r="K183" s="14"/>
     </row>
-    <row r="184" spans="1:14" s="15" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" s="15" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A184" s="15" t="s">
         <v>45</v>
       </c>
@@ -12086,7 +12086,7 @@
       <c r="K184" s="22"/>
       <c r="N184" s="22"/>
     </row>
-    <row r="185" spans="1:14" s="15" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" s="15" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A185" s="15" t="s">
         <v>56</v>
       </c>
@@ -12116,7 +12116,7 @@
       <c r="K185" s="22"/>
       <c r="N185" s="22"/>
     </row>
-    <row r="186" spans="1:14" s="15" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" s="15" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A186" s="15" t="s">
         <v>60</v>
       </c>
@@ -12146,7 +12146,7 @@
       <c r="K186" s="22"/>
       <c r="N186" s="22"/>
     </row>
-    <row r="187" spans="1:14" s="15" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" s="15" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A187" s="15" t="s">
         <v>674</v>
       </c>
@@ -12174,7 +12174,7 @@
       <c r="K187" s="22"/>
       <c r="N187" s="22"/>
     </row>
-    <row r="188" spans="1:14" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A188" s="15" t="s">
         <v>679</v>
       </c>
@@ -12200,7 +12200,7 @@
       <c r="K188" s="22"/>
       <c r="N188" s="22"/>
     </row>
-    <row r="189" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A189" s="15" t="s">
         <v>255</v>
       </c>
@@ -12228,7 +12228,7 @@
       <c r="K189" s="22"/>
       <c r="N189" s="22"/>
     </row>
-    <row r="190" spans="1:14" s="15" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" s="15" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A190" s="15" t="s">
         <v>685</v>
       </c>
@@ -12254,7 +12254,7 @@
       <c r="K190" s="22"/>
       <c r="N190" s="22"/>
     </row>
-    <row r="191" spans="1:14" s="15" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" s="15" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A191" s="15" t="s">
         <v>688</v>
       </c>
@@ -12284,33 +12284,33 @@
       <c r="K191" s="22"/>
       <c r="N191" s="22"/>
     </row>
-    <row r="192" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="90" t="s">
+    <row r="192" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B192" s="81" t="s">
         <v>691</v>
       </c>
-      <c r="C192" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="D192" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E192" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="F192" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G192" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H192" s="92" t="s">
+      <c r="C192" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D192" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E192" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F192" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G192" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H192" s="83" t="s">
         <v>22</v>
       </c>
       <c r="I192" s="14"/>
       <c r="J192" s="14"/>
       <c r="K192" s="14"/>
     </row>
-    <row r="193" spans="1:14" s="15" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" s="15" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A193" s="15" t="s">
         <v>692</v>
       </c>
@@ -12342,7 +12342,7 @@
       <c r="K193" s="22"/>
       <c r="N193" s="22"/>
     </row>
-    <row r="194" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A194" s="15" t="s">
         <v>697</v>
       </c>
@@ -12372,7 +12372,7 @@
       <c r="K194" s="22"/>
       <c r="N194" s="22"/>
     </row>
-    <row r="195" spans="1:14" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" s="15" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A195" s="15" t="s">
         <v>702</v>
       </c>
@@ -12402,7 +12402,7 @@
       <c r="K195" s="22"/>
       <c r="N195" s="22"/>
     </row>
-    <row r="196" spans="1:14" s="15" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" s="15" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
         <v>706</v>
       </c>
@@ -12432,7 +12432,7 @@
       <c r="K196" s="22"/>
       <c r="N196" s="22"/>
     </row>
-    <row r="197" spans="1:14" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A197" s="15" t="s">
         <v>709</v>
       </c>
@@ -12462,7 +12462,7 @@
       <c r="K197" s="22"/>
       <c r="N197" s="22"/>
     </row>
-    <row r="198" spans="1:14" s="15" customFormat="1" ht="159" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" s="15" customFormat="1" ht="163.19999999999999" x14ac:dyDescent="0.3">
       <c r="A198" s="15" t="s">
         <v>714</v>
       </c>
@@ -12492,7 +12492,7 @@
       <c r="K198" s="22"/>
       <c r="N198" s="22"/>
     </row>
-    <row r="199" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A199" s="15" t="s">
         <v>718</v>
       </c>
@@ -12522,7 +12522,7 @@
       <c r="K199" s="22"/>
       <c r="N199" s="22"/>
     </row>
-    <row r="200" spans="1:14" s="15" customFormat="1" ht="153" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" s="15" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A200" s="15" t="s">
         <v>723</v>
       </c>
@@ -12552,7 +12552,7 @@
       <c r="K200" s="22"/>
       <c r="N200" s="22"/>
     </row>
-    <row r="201" spans="1:14" s="15" customFormat="1" ht="153" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" s="15" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A201" s="15" t="s">
         <v>727</v>
       </c>
@@ -12582,7 +12582,7 @@
       <c r="K201" s="22"/>
       <c r="N201" s="22"/>
     </row>
-    <row r="202" spans="1:14" s="15" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" s="15" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A202" s="15" t="s">
         <v>730</v>
       </c>
@@ -12612,33 +12612,33 @@
       <c r="K202" s="22"/>
       <c r="N202" s="22"/>
     </row>
-    <row r="203" spans="1:14" s="13" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="90" t="s">
+    <row r="203" spans="1:14" s="13" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B203" s="81" t="s">
         <v>735</v>
       </c>
-      <c r="C203" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="D203" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E203" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="F203" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G203" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H203" s="92" t="s">
+      <c r="C203" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D203" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E203" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F203" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G203" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H203" s="83" t="s">
         <v>22</v>
       </c>
       <c r="I203" s="14"/>
       <c r="J203" s="14"/>
       <c r="K203" s="14"/>
     </row>
-    <row r="204" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A204" s="15" t="s">
         <v>736</v>
       </c>
@@ -12668,7 +12668,7 @@
       <c r="K204" s="22"/>
       <c r="N204" s="22"/>
     </row>
-    <row r="205" spans="1:14" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A205" s="15" t="s">
         <v>739</v>
       </c>
@@ -12698,7 +12698,7 @@
       <c r="K205" s="22"/>
       <c r="N205" s="22"/>
     </row>
-    <row r="206" spans="1:14" s="15" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" s="15" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A206" s="15" t="s">
         <v>741</v>
       </c>
@@ -12728,7 +12728,7 @@
       <c r="K206" s="22"/>
       <c r="N206" s="22"/>
     </row>
-    <row r="207" spans="1:14" s="15" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" s="15" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A207" s="15" t="s">
         <v>746</v>
       </c>
@@ -12758,7 +12758,7 @@
       <c r="K207" s="22"/>
       <c r="N207" s="22"/>
     </row>
-    <row r="208" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A208" s="15" t="s">
         <v>752</v>
       </c>
@@ -12788,7 +12788,7 @@
       <c r="K208" s="22"/>
       <c r="N208" s="22"/>
     </row>
-    <row r="209" spans="1:14" s="15" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" s="15" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A209" s="15" t="s">
         <v>755</v>
       </c>
@@ -12818,7 +12818,7 @@
       <c r="K209" s="22"/>
       <c r="N209" s="22"/>
     </row>
-    <row r="210" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A210" s="15" t="s">
         <v>757</v>
       </c>
@@ -12848,7 +12848,7 @@
       <c r="K210" s="22"/>
       <c r="N210" s="22"/>
     </row>
-    <row r="211" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A211" s="15" t="s">
         <v>762</v>
       </c>
@@ -12878,7 +12878,7 @@
       <c r="K211" s="22"/>
       <c r="N211" s="22"/>
     </row>
-    <row r="212" spans="1:14" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A212" s="15" t="s">
         <v>767</v>
       </c>
@@ -12908,7 +12908,7 @@
       <c r="K212" s="22"/>
       <c r="N212" s="22"/>
     </row>
-    <row r="213" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A213" s="15" t="s">
         <v>772</v>
       </c>
@@ -12940,7 +12940,7 @@
       <c r="K213" s="22"/>
       <c r="N213" s="22"/>
     </row>
-    <row r="214" spans="1:14" s="15" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" s="15" customFormat="1" ht="184.8" x14ac:dyDescent="0.3">
       <c r="A214" s="15" t="s">
         <v>776</v>
       </c>
@@ -12972,7 +12972,7 @@
       <c r="K214" s="22"/>
       <c r="N214" s="22"/>
     </row>
-    <row r="215" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A215" s="15" t="s">
         <v>783</v>
       </c>
@@ -13000,7 +13000,7 @@
       <c r="K215" s="22"/>
       <c r="N215" s="22"/>
     </row>
-    <row r="216" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A216" s="15" t="s">
         <v>783</v>
       </c>
@@ -13028,7 +13028,7 @@
       <c r="K216" s="22"/>
       <c r="N216" s="22"/>
     </row>
-    <row r="217" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A217" s="15" t="s">
         <v>767</v>
       </c>
@@ -13058,33 +13058,33 @@
       <c r="K217" s="22"/>
       <c r="N217" s="22"/>
     </row>
-    <row r="218" spans="1:14" s="13" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="90" t="s">
+    <row r="218" spans="1:14" s="13" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B218" s="81" t="s">
         <v>792</v>
       </c>
-      <c r="C218" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="D218" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E218" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="F218" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G218" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H218" s="92" t="s">
+      <c r="C218" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D218" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E218" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F218" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G218" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H218" s="83" t="s">
         <v>22</v>
       </c>
       <c r="I218" s="14"/>
       <c r="J218" s="14"/>
       <c r="K218" s="14"/>
     </row>
-    <row r="219" spans="1:14" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" s="15" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A219" s="15" t="s">
         <v>793</v>
       </c>
@@ -13116,7 +13116,7 @@
       <c r="K219" s="22"/>
       <c r="N219" s="22"/>
     </row>
-    <row r="220" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A220" s="15" t="s">
         <v>800</v>
       </c>
@@ -13146,7 +13146,7 @@
       <c r="K220" s="22"/>
       <c r="N220" s="22"/>
     </row>
-    <row r="221" spans="1:14" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A221" s="15" t="s">
         <v>805</v>
       </c>
@@ -13176,7 +13176,7 @@
       <c r="K221" s="22"/>
       <c r="N221" s="22"/>
     </row>
-    <row r="222" spans="1:14" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" s="15" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A222" s="15" t="s">
         <v>808</v>
       </c>
@@ -13206,7 +13206,7 @@
       <c r="K222" s="22"/>
       <c r="N222" s="22"/>
     </row>
-    <row r="223" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A223" s="15" t="s">
         <v>810</v>
       </c>
@@ -13236,7 +13236,7 @@
       <c r="K223" s="22"/>
       <c r="N223" s="22"/>
     </row>
-    <row r="224" spans="1:14" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" s="15" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A224" s="15" t="s">
         <v>814</v>
       </c>
@@ -13266,7 +13266,7 @@
       <c r="K224" s="22"/>
       <c r="N224" s="22"/>
     </row>
-    <row r="225" spans="1:14" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" s="15" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A225" s="15" t="s">
         <v>816</v>
       </c>
@@ -13296,7 +13296,7 @@
       <c r="K225" s="22"/>
       <c r="N225" s="22"/>
     </row>
-    <row r="226" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A226" s="15" t="s">
         <v>819</v>
       </c>
@@ -13326,7 +13326,7 @@
       <c r="K226" s="22"/>
       <c r="N226" s="22"/>
     </row>
-    <row r="227" spans="1:14" s="15" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" s="15" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A227" s="15" t="s">
         <v>822</v>
       </c>
@@ -13356,7 +13356,7 @@
       <c r="K227" s="22"/>
       <c r="N227" s="22"/>
     </row>
-    <row r="228" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A228" s="15" t="s">
         <v>824</v>
       </c>
@@ -13380,7 +13380,7 @@
       <c r="K228" s="22"/>
       <c r="N228" s="22"/>
     </row>
-    <row r="229" spans="1:14" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A229" s="15" t="s">
         <v>827</v>
       </c>
@@ -13410,7 +13410,7 @@
       <c r="K229" s="22"/>
       <c r="N229" s="22"/>
     </row>
-    <row r="230" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A230" s="15" t="s">
         <v>831</v>
       </c>
@@ -13440,7 +13440,7 @@
       <c r="K230" s="22"/>
       <c r="N230" s="22"/>
     </row>
-    <row r="231" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A231" s="15" t="s">
         <v>834</v>
       </c>
@@ -13470,7 +13470,7 @@
       <c r="K231" s="22"/>
       <c r="N231" s="22"/>
     </row>
-    <row r="232" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A232" s="15" t="s">
         <v>837</v>
       </c>
@@ -13500,7 +13500,7 @@
       <c r="K232" s="22"/>
       <c r="N232" s="22"/>
     </row>
-    <row r="233" spans="1:14" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A233" s="15" t="s">
         <v>841</v>
       </c>
@@ -13530,7 +13530,7 @@
       <c r="K233" s="22"/>
       <c r="N233" s="22"/>
     </row>
-    <row r="234" spans="1:14" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" s="15" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A234" s="15" t="s">
         <v>845</v>
       </c>
@@ -13560,7 +13560,7 @@
       <c r="K234" s="22"/>
       <c r="N234" s="22"/>
     </row>
-    <row r="235" spans="1:14" s="15" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" s="15" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A235" s="15" t="s">
         <v>849</v>
       </c>
@@ -13592,7 +13592,7 @@
       <c r="K235" s="22"/>
       <c r="N235" s="22"/>
     </row>
-    <row r="236" spans="1:14" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A236" s="15" t="s">
         <v>857</v>
       </c>
@@ -13622,7 +13622,7 @@
       <c r="K236" s="22"/>
       <c r="N236" s="22"/>
     </row>
-    <row r="237" spans="1:14" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" s="15" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A237" s="15" t="s">
         <v>535</v>
       </c>
@@ -13652,7 +13652,7 @@
       <c r="K237" s="22"/>
       <c r="N237" s="22"/>
     </row>
-    <row r="238" spans="1:14" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" s="15" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A238" s="15" t="s">
         <v>861</v>
       </c>
@@ -13682,7 +13682,7 @@
       <c r="K238" s="22"/>
       <c r="N238" s="22"/>
     </row>
-    <row r="239" spans="1:14" s="15" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" s="15" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A239" s="15" t="s">
         <v>866</v>
       </c>
@@ -13712,7 +13712,7 @@
       <c r="K239" s="22"/>
       <c r="N239" s="22"/>
     </row>
-    <row r="240" spans="1:14" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A240" s="15" t="s">
         <v>870</v>
       </c>
@@ -13742,7 +13742,7 @@
       <c r="K240" s="22"/>
       <c r="N240" s="22"/>
     </row>
-    <row r="241" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A241" s="15" t="s">
         <v>874</v>
       </c>
@@ -13772,7 +13772,7 @@
       <c r="K241" s="22"/>
       <c r="N241" s="22"/>
     </row>
-    <row r="242" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A242" s="15" t="s">
         <v>519</v>
       </c>
@@ -13802,48 +13802,48 @@
       <c r="K242" s="22"/>
       <c r="N242" s="22"/>
     </row>
-    <row r="243" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="90" t="s">
+    <row r="243" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B243" s="81" t="s">
         <v>879</v>
       </c>
-      <c r="C243" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="D243" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E243" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="F243" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G243" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H243" s="92" t="s">
+      <c r="C243" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D243" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E243" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F243" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G243" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H243" s="83" t="s">
         <v>22</v>
       </c>
       <c r="I243" s="14"/>
       <c r="J243" s="14"/>
       <c r="K243" s="14"/>
     </row>
-    <row r="244" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="82" t="s">
+    <row r="244" spans="1:14" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B244" s="86" t="s">
         <v>880</v>
       </c>
-      <c r="C244" s="83"/>
-      <c r="D244" s="83"/>
-      <c r="E244" s="83"/>
-      <c r="F244" s="83"/>
-      <c r="G244" s="83"/>
-      <c r="H244" s="84"/>
+      <c r="C244" s="87"/>
+      <c r="D244" s="87"/>
+      <c r="E244" s="87"/>
+      <c r="F244" s="87"/>
+      <c r="G244" s="87"/>
+      <c r="H244" s="88"/>
       <c r="I244" s="22"/>
       <c r="J244" s="22"/>
       <c r="K244" s="22"/>
       <c r="N244" s="22"/>
     </row>
-    <row r="245" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A245" s="15" t="s">
         <v>881</v>
       </c>
@@ -13873,7 +13873,7 @@
       <c r="K245" s="22"/>
       <c r="N245" s="22"/>
     </row>
-    <row r="246" spans="1:14" s="15" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14" s="15" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A246" s="15" t="s">
         <v>885</v>
       </c>
@@ -13903,7 +13903,7 @@
       <c r="K246" s="22"/>
       <c r="N246" s="22"/>
     </row>
-    <row r="247" spans="1:14" s="15" customFormat="1" ht="153" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14" s="15" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A247" s="15" t="s">
         <v>887</v>
       </c>
@@ -13933,7 +13933,7 @@
       <c r="K247" s="22"/>
       <c r="N247" s="22"/>
     </row>
-    <row r="248" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A248" s="15" t="s">
         <v>890</v>
       </c>
@@ -13965,7 +13965,7 @@
       <c r="K248" s="22"/>
       <c r="N248" s="22"/>
     </row>
-    <row r="249" spans="1:14" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" s="15" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A249" s="15" t="s">
         <v>897</v>
       </c>
@@ -13995,7 +13995,7 @@
       <c r="K249" s="22"/>
       <c r="N249" s="22"/>
     </row>
-    <row r="250" spans="1:14" s="15" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" s="15" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A250" s="15" t="s">
         <v>899</v>
       </c>
@@ -14025,7 +14025,7 @@
       <c r="K250" s="22"/>
       <c r="N250" s="22"/>
     </row>
-    <row r="251" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A251" s="15" t="s">
         <v>903</v>
       </c>
@@ -14055,22 +14055,22 @@
       <c r="K251" s="22"/>
       <c r="N251" s="22"/>
     </row>
-    <row r="252" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B252" s="82" t="s">
+    <row r="252" spans="1:14" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B252" s="86" t="s">
         <v>907</v>
       </c>
-      <c r="C252" s="83"/>
-      <c r="D252" s="83"/>
-      <c r="E252" s="83"/>
-      <c r="F252" s="83"/>
-      <c r="G252" s="83"/>
-      <c r="H252" s="84"/>
+      <c r="C252" s="87"/>
+      <c r="D252" s="87"/>
+      <c r="E252" s="87"/>
+      <c r="F252" s="87"/>
+      <c r="G252" s="87"/>
+      <c r="H252" s="88"/>
       <c r="I252" s="22"/>
       <c r="J252" s="22"/>
       <c r="K252" s="22"/>
       <c r="N252" s="22"/>
     </row>
-    <row r="253" spans="1:14" s="15" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" s="15" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A253" s="15" t="s">
         <v>908</v>
       </c>
@@ -14100,7 +14100,7 @@
       <c r="K253" s="22"/>
       <c r="N253" s="22"/>
     </row>
-    <row r="254" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A254" s="15" t="s">
         <v>912</v>
       </c>
@@ -14130,7 +14130,7 @@
       <c r="K254" s="22"/>
       <c r="N254" s="22"/>
     </row>
-    <row r="255" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A255" s="15" t="s">
         <v>916</v>
       </c>
@@ -14160,22 +14160,22 @@
       <c r="K255" s="22"/>
       <c r="N255" s="22"/>
     </row>
-    <row r="256" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B256" s="82" t="s">
+    <row r="256" spans="1:14" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B256" s="86" t="s">
         <v>919</v>
       </c>
-      <c r="C256" s="83"/>
-      <c r="D256" s="83"/>
-      <c r="E256" s="83"/>
-      <c r="F256" s="83"/>
-      <c r="G256" s="83"/>
-      <c r="H256" s="84"/>
+      <c r="C256" s="87"/>
+      <c r="D256" s="87"/>
+      <c r="E256" s="87"/>
+      <c r="F256" s="87"/>
+      <c r="G256" s="87"/>
+      <c r="H256" s="88"/>
       <c r="I256" s="22"/>
       <c r="J256" s="22"/>
       <c r="K256" s="22"/>
       <c r="N256" s="22"/>
     </row>
-    <row r="257" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A257" s="15" t="s">
         <v>920</v>
       </c>
@@ -14205,22 +14205,22 @@
       <c r="K257" s="22"/>
       <c r="N257" s="22"/>
     </row>
-    <row r="258" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B258" s="82" t="s">
+    <row r="258" spans="1:14" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B258" s="86" t="s">
         <v>923</v>
       </c>
-      <c r="C258" s="83"/>
-      <c r="D258" s="83"/>
-      <c r="E258" s="83"/>
-      <c r="F258" s="83"/>
-      <c r="G258" s="83"/>
-      <c r="H258" s="84"/>
+      <c r="C258" s="87"/>
+      <c r="D258" s="87"/>
+      <c r="E258" s="87"/>
+      <c r="F258" s="87"/>
+      <c r="G258" s="87"/>
+      <c r="H258" s="88"/>
       <c r="I258" s="22"/>
       <c r="J258" s="22"/>
       <c r="K258" s="22"/>
       <c r="N258" s="22"/>
     </row>
-    <row r="259" spans="1:14" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:14" s="15" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A259" s="15" t="s">
         <v>924</v>
       </c>
@@ -14250,7 +14250,7 @@
       <c r="K259" s="22"/>
       <c r="N259" s="22"/>
     </row>
-    <row r="260" spans="1:14" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:14" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A260" s="15" t="s">
         <v>928</v>
       </c>
@@ -14280,7 +14280,7 @@
       <c r="K260" s="22"/>
       <c r="N260" s="22"/>
     </row>
-    <row r="261" spans="1:14" s="15" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:14" s="15" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A261" s="15" t="s">
         <v>931</v>
       </c>
@@ -14310,37 +14310,37 @@
       <c r="K261" s="22"/>
       <c r="N261" s="22"/>
     </row>
-    <row r="262" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B262" s="82" t="s">
+    <row r="262" spans="1:14" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B262" s="86" t="s">
         <v>934</v>
       </c>
-      <c r="C262" s="83"/>
-      <c r="D262" s="83"/>
-      <c r="E262" s="83"/>
-      <c r="F262" s="83"/>
-      <c r="G262" s="83"/>
-      <c r="H262" s="84"/>
+      <c r="C262" s="87"/>
+      <c r="D262" s="87"/>
+      <c r="E262" s="87"/>
+      <c r="F262" s="87"/>
+      <c r="G262" s="87"/>
+      <c r="H262" s="88"/>
       <c r="I262" s="22"/>
       <c r="J262" s="22"/>
       <c r="K262" s="22"/>
       <c r="N262" s="22"/>
     </row>
-    <row r="263" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B263" s="85" t="s">
+    <row r="263" spans="1:14" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B263" s="89" t="s">
         <v>935</v>
       </c>
-      <c r="C263" s="86"/>
-      <c r="D263" s="86"/>
-      <c r="E263" s="86"/>
-      <c r="F263" s="86"/>
-      <c r="G263" s="86"/>
-      <c r="H263" s="87"/>
+      <c r="C263" s="90"/>
+      <c r="D263" s="90"/>
+      <c r="E263" s="90"/>
+      <c r="F263" s="90"/>
+      <c r="G263" s="90"/>
+      <c r="H263" s="91"/>
       <c r="I263" s="22"/>
       <c r="J263" s="22"/>
       <c r="K263" s="22"/>
       <c r="N263" s="22"/>
     </row>
-    <row r="264" spans="1:14" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14" s="15" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A264" s="15" t="s">
         <v>936</v>
       </c>
@@ -14370,7 +14370,7 @@
       <c r="K264" s="22"/>
       <c r="N264" s="22"/>
     </row>
-    <row r="265" spans="1:14" s="15" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14" s="15" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A265" s="15" t="s">
         <v>939</v>
       </c>
@@ -14400,7 +14400,7 @@
       <c r="K265" s="22"/>
       <c r="N265" s="22"/>
     </row>
-    <row r="266" spans="1:14" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:14" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A266" s="15" t="s">
         <v>943</v>
       </c>
@@ -14430,22 +14430,22 @@
       <c r="K266" s="22"/>
       <c r="N266" s="22"/>
     </row>
-    <row r="267" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="85" t="s">
+    <row r="267" spans="1:14" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B267" s="89" t="s">
         <v>947</v>
       </c>
-      <c r="C267" s="86"/>
-      <c r="D267" s="86"/>
-      <c r="E267" s="86"/>
-      <c r="F267" s="86"/>
-      <c r="G267" s="86"/>
-      <c r="H267" s="87"/>
+      <c r="C267" s="90"/>
+      <c r="D267" s="90"/>
+      <c r="E267" s="90"/>
+      <c r="F267" s="90"/>
+      <c r="G267" s="90"/>
+      <c r="H267" s="91"/>
       <c r="I267" s="22"/>
       <c r="J267" s="22"/>
       <c r="K267" s="22"/>
       <c r="N267" s="22"/>
     </row>
-    <row r="268" spans="1:14" s="15" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:14" s="15" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A268" s="15" t="s">
         <v>948</v>
       </c>
@@ -14475,7 +14475,7 @@
       <c r="K268" s="22"/>
       <c r="N268" s="22"/>
     </row>
-    <row r="269" spans="1:14" s="15" customFormat="1" ht="153" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14" s="15" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A269" s="15" t="s">
         <v>951</v>
       </c>
@@ -14503,22 +14503,22 @@
       <c r="K269" s="22"/>
       <c r="N269" s="22"/>
     </row>
-    <row r="270" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B270" s="85" t="s">
+    <row r="270" spans="1:14" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B270" s="89" t="s">
         <v>955</v>
       </c>
-      <c r="C270" s="86"/>
-      <c r="D270" s="86"/>
-      <c r="E270" s="86"/>
-      <c r="F270" s="86"/>
-      <c r="G270" s="86"/>
-      <c r="H270" s="87"/>
+      <c r="C270" s="90"/>
+      <c r="D270" s="90"/>
+      <c r="E270" s="90"/>
+      <c r="F270" s="90"/>
+      <c r="G270" s="90"/>
+      <c r="H270" s="91"/>
       <c r="I270" s="22"/>
       <c r="J270" s="22"/>
       <c r="K270" s="22"/>
       <c r="N270" s="22"/>
     </row>
-    <row r="271" spans="1:14" s="15" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:14" s="15" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A271" s="15" t="s">
         <v>956</v>
       </c>
@@ -14542,7 +14542,7 @@
       <c r="K271" s="22"/>
       <c r="N271" s="22"/>
     </row>
-    <row r="272" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A272" s="15" t="s">
         <v>959</v>
       </c>
@@ -14572,7 +14572,7 @@
       <c r="K272" s="22"/>
       <c r="N272" s="22"/>
     </row>
-    <row r="273" spans="1:14" s="15" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A273" s="15" t="s">
         <v>962</v>
       </c>
@@ -14602,7 +14602,7 @@
       <c r="K273" s="22"/>
       <c r="N273" s="22"/>
     </row>
-    <row r="274" spans="1:14" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" s="15" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A274" s="15" t="s">
         <v>966</v>
       </c>
@@ -14632,7 +14632,7 @@
       <c r="K274" s="22"/>
       <c r="N274" s="22"/>
     </row>
-    <row r="275" spans="1:14" s="15" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14" s="15" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A275" s="15" t="s">
         <v>969</v>
       </c>
@@ -14662,58 +14662,58 @@
       <c r="K275" s="22"/>
       <c r="N275" s="22"/>
     </row>
-    <row r="276" spans="1:14" s="57" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B276" s="88" t="s">
+    <row r="276" spans="1:14" s="57" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B276" s="92" t="s">
         <v>972</v>
       </c>
-      <c r="C276" s="88"/>
-      <c r="D276" s="88"/>
-      <c r="E276" s="88"/>
-      <c r="F276" s="88"/>
-      <c r="G276" s="88"/>
-      <c r="H276" s="88"/>
+      <c r="C276" s="92"/>
+      <c r="D276" s="92"/>
+      <c r="E276" s="92"/>
+      <c r="F276" s="92"/>
+      <c r="G276" s="92"/>
+      <c r="H276" s="92"/>
       <c r="I276" s="56"/>
       <c r="J276" s="56"/>
       <c r="K276" s="56"/>
     </row>
-    <row r="277" spans="1:14" s="57" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B277" s="89" t="s">
+    <row r="277" spans="1:14" s="57" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B277" s="93" t="s">
         <v>973</v>
       </c>
-      <c r="C277" s="89"/>
-      <c r="D277" s="89"/>
-      <c r="E277" s="89"/>
-      <c r="F277" s="89"/>
-      <c r="G277" s="89"/>
-      <c r="H277" s="89"/>
+      <c r="C277" s="93"/>
+      <c r="D277" s="93"/>
+      <c r="E277" s="93"/>
+      <c r="F277" s="93"/>
+      <c r="G277" s="93"/>
+      <c r="H277" s="93"/>
       <c r="I277" s="56"/>
       <c r="J277" s="56"/>
       <c r="K277" s="56"/>
     </row>
-    <row r="278" spans="1:14" s="57" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B278" s="89" t="s">
+    <row r="278" spans="1:14" s="57" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B278" s="93" t="s">
         <v>974</v>
       </c>
-      <c r="C278" s="89"/>
-      <c r="D278" s="89"/>
-      <c r="E278" s="89"/>
-      <c r="F278" s="89"/>
-      <c r="G278" s="89"/>
-      <c r="H278" s="89"/>
+      <c r="C278" s="93"/>
+      <c r="D278" s="93"/>
+      <c r="E278" s="93"/>
+      <c r="F278" s="93"/>
+      <c r="G278" s="93"/>
+      <c r="H278" s="93"/>
       <c r="I278" s="56"/>
       <c r="J278" s="56"/>
       <c r="K278" s="56"/>
     </row>
-    <row r="279" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B279" s="81" t="s">
+    <row r="279" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B279" s="85" t="s">
         <v>975</v>
       </c>
-      <c r="C279" s="81"/>
-      <c r="D279" s="81"/>
-      <c r="E279" s="81"/>
-      <c r="F279" s="81"/>
-      <c r="G279" s="81"/>
-      <c r="H279" s="81"/>
+      <c r="C279" s="85"/>
+      <c r="D279" s="85"/>
+      <c r="E279" s="85"/>
+      <c r="F279" s="85"/>
+      <c r="G279" s="85"/>
+      <c r="H279" s="85"/>
       <c r="I279" s="56"/>
       <c r="J279" s="56"/>
       <c r="K279" s="56"/>
@@ -14721,12 +14721,18 @@
   </sheetData>
   <autoFilter ref="A2:I279" xr:uid="{6B1B4B68-CDE7-4773-B6E3-1B4E74E676EC}"/>
   <mergeCells count="30">
-    <mergeCell ref="B74:H74"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B279:H279"/>
+    <mergeCell ref="B244:H244"/>
+    <mergeCell ref="B252:H252"/>
+    <mergeCell ref="B256:H256"/>
+    <mergeCell ref="B258:H258"/>
+    <mergeCell ref="B262:H262"/>
+    <mergeCell ref="B263:H263"/>
+    <mergeCell ref="B267:H267"/>
+    <mergeCell ref="B270:H270"/>
+    <mergeCell ref="B276:H276"/>
+    <mergeCell ref="B277:H277"/>
+    <mergeCell ref="B278:H278"/>
     <mergeCell ref="B243:H243"/>
     <mergeCell ref="B89:H89"/>
     <mergeCell ref="B101:H101"/>
@@ -14739,18 +14745,12 @@
     <mergeCell ref="B192:H192"/>
     <mergeCell ref="B203:H203"/>
     <mergeCell ref="B218:H218"/>
-    <mergeCell ref="B279:H279"/>
-    <mergeCell ref="B244:H244"/>
-    <mergeCell ref="B252:H252"/>
-    <mergeCell ref="B256:H256"/>
-    <mergeCell ref="B258:H258"/>
-    <mergeCell ref="B262:H262"/>
-    <mergeCell ref="B263:H263"/>
-    <mergeCell ref="B267:H267"/>
-    <mergeCell ref="B270:H270"/>
-    <mergeCell ref="B276:H276"/>
-    <mergeCell ref="B277:H277"/>
-    <mergeCell ref="B278:H278"/>
+    <mergeCell ref="B74:H74"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B61:H61"/>
   </mergeCells>
   <pageMargins left="0.1" right="0.1" top="0.25" bottom="0.25" header="0.05" footer="0.05"/>
   <pageSetup scale="84" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -14773,28 +14773,28 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="143.5703125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="75.140625" customWidth="1"/>
+    <col min="1" max="1" width="143.5546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="75.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="252" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="249.6" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>976</v>
       </c>
       <c r="B2" s="50"/>
     </row>
-    <row r="3" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="50"/>
     </row>
-    <row r="4" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1078</v>
       </c>
@@ -14805,11 +14805,11 @@
       <c r="F4" s="51"/>
       <c r="G4" s="51"/>
     </row>
-    <row r="5" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="50"/>
     </row>
-    <row r="6" spans="1:7" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="234" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>1073</v>
       </c>
@@ -14839,88 +14839,88 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="131.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="75.140625" customWidth="1"/>
+    <col min="1" max="1" width="131.44140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="75.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="78" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="78" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="78" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="63" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="63" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>992</v>
       </c>
@@ -14941,37 +14941,37 @@
   </sheetPr>
   <dimension ref="A1:I279"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="68" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="78" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" style="78" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="67" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="79" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="79" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="67" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" style="68" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" style="78" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" style="78" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="67" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="79" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="79" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" style="67" customWidth="1"/>
     <col min="8" max="8" width="51" style="76" customWidth="1"/>
-    <col min="9" max="9" width="78.28515625" style="76" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="73"/>
+    <col min="9" max="9" width="78.33203125" style="76" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.35">
-      <c r="B1" s="93" t="s">
+    <row r="1" spans="1:9" ht="27.6" x14ac:dyDescent="0.45">
+      <c r="B1" s="84" t="s">
         <v>1079</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
       <c r="I1" s="73"/>
     </row>
-    <row r="2" spans="1:9" s="77" customFormat="1" ht="53.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="77" customFormat="1" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="s">
         <v>1</v>
       </c>
@@ -15000,18 +15000,18 @@
         <v>995</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="90" t="s">
+    <row r="3" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="92"/>
-    </row>
-    <row r="4" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="83"/>
+    </row>
+    <row r="4" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" s="71" t="s">
         <v>10</v>
       </c>
@@ -15038,7 +15038,7 @@
       </c>
       <c r="I4" s="74"/>
     </row>
-    <row r="5" spans="1:9" s="71" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="71" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="71" t="s">
         <v>18</v>
       </c>
@@ -15067,7 +15067,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="71" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="71" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="71" t="s">
         <v>23</v>
       </c>
@@ -15096,7 +15096,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="71" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="71" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A7" s="71" t="s">
         <v>29</v>
       </c>
@@ -15123,7 +15123,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="71" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="71" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A8" s="71" t="s">
         <v>33</v>
       </c>
@@ -15150,7 +15150,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="71" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="71" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="71" t="s">
         <v>40</v>
       </c>
@@ -15175,7 +15175,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="71" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="71" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="71" t="s">
         <v>45</v>
       </c>
@@ -15204,7 +15204,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="71" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="71" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="71" t="s">
         <v>52</v>
       </c>
@@ -15231,7 +15231,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="71" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="71" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="71" t="s">
         <v>56</v>
       </c>
@@ -15260,7 +15260,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="71" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="71" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="71" t="s">
         <v>60</v>
       </c>
@@ -15289,7 +15289,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="71" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="71" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="71" t="s">
         <v>63</v>
       </c>
@@ -15312,7 +15312,7 @@
       </c>
       <c r="I14" s="74"/>
     </row>
-    <row r="15" spans="1:9" s="71" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="71" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="71" t="s">
         <v>68</v>
       </c>
@@ -15339,7 +15339,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A16" s="71" t="s">
         <v>72</v>
       </c>
@@ -15364,30 +15364,30 @@
       </c>
       <c r="I16" s="74"/>
     </row>
-    <row r="17" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="90" t="s">
+    <row r="17" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="92" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="71" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="83" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="71" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="71" t="s">
         <v>77</v>
       </c>
@@ -15416,7 +15416,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="71" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="71" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="71" t="s">
         <v>81</v>
       </c>
@@ -15443,7 +15443,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="71" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="71" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A20" s="71" t="s">
         <v>84</v>
       </c>
@@ -15472,7 +15472,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="71" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="71" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A21" s="71" t="s">
         <v>87</v>
       </c>
@@ -15501,7 +15501,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="71" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="71" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="71" t="s">
         <v>89</v>
       </c>
@@ -15522,7 +15522,7 @@
       </c>
       <c r="I22" s="74"/>
     </row>
-    <row r="23" spans="1:9" s="71" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="71" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A23" s="71" t="s">
         <v>93</v>
       </c>
@@ -15549,7 +15549,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="71" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="71" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="71" t="s">
         <v>97</v>
       </c>
@@ -15576,7 +15576,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="71" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="71" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A25" s="71" t="s">
         <v>99</v>
       </c>
@@ -15605,7 +15605,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="71" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="71" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="71" t="s">
         <v>103</v>
       </c>
@@ -15634,7 +15634,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="71" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="71" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="71" t="s">
         <v>109</v>
       </c>
@@ -15663,7 +15663,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="71" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="71" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A28" s="71" t="s">
         <v>112</v>
       </c>
@@ -15690,7 +15690,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A29" s="71" t="s">
         <v>116</v>
       </c>
@@ -15719,7 +15719,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="71" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="71" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A30" s="71" t="s">
         <v>118</v>
       </c>
@@ -15746,7 +15746,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="71" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="71" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A31" s="71" t="s">
         <v>123</v>
       </c>
@@ -15775,30 +15775,30 @@
         <v>319</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="90" t="s">
+    <row r="32" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="92" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="71" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="83" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="71" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="71" t="s">
         <v>128</v>
       </c>
@@ -15825,7 +15825,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A34" s="71" t="s">
         <v>134</v>
       </c>
@@ -15854,7 +15854,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A35" s="71" t="s">
         <v>137</v>
       </c>
@@ -15883,7 +15883,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="71" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="71" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="71" t="s">
         <v>141</v>
       </c>
@@ -15912,7 +15912,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A37" s="71" t="s">
         <v>143</v>
       </c>
@@ -15939,7 +15939,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A38" s="71" t="s">
         <v>148</v>
       </c>
@@ -15968,7 +15968,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A39" s="71" t="s">
         <v>150</v>
       </c>
@@ -15997,7 +15997,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A40" s="71" t="s">
         <v>152</v>
       </c>
@@ -16024,7 +16024,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A41" s="71" t="s">
         <v>155</v>
       </c>
@@ -16053,7 +16053,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A42" s="71" t="s">
         <v>157</v>
       </c>
@@ -16080,7 +16080,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="71" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" s="71" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A43" s="71" t="s">
         <v>160</v>
       </c>
@@ -16107,7 +16107,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A44" s="71" t="s">
         <v>162</v>
       </c>
@@ -16134,7 +16134,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A45" s="71" t="s">
         <v>167</v>
       </c>
@@ -16161,7 +16161,7 @@
       </c>
       <c r="I45" s="74"/>
     </row>
-    <row r="46" spans="1:9" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A46" s="71" t="s">
         <v>169</v>
       </c>
@@ -16190,7 +16190,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A47" s="71" t="s">
         <v>173</v>
       </c>
@@ -16219,7 +16219,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A48" s="71" t="s">
         <v>178</v>
       </c>
@@ -16246,7 +16246,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="71" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" s="71" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="71" t="s">
         <v>181</v>
       </c>
@@ -16275,7 +16275,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A50" s="71" t="s">
         <v>186</v>
       </c>
@@ -16302,7 +16302,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A51" s="71" t="s">
         <v>190</v>
       </c>
@@ -16331,7 +16331,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A52" s="71" t="s">
         <v>193</v>
       </c>
@@ -16358,7 +16358,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A53" s="71" t="s">
         <v>195</v>
       </c>
@@ -16385,7 +16385,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A54" s="71" t="s">
         <v>197</v>
       </c>
@@ -16414,7 +16414,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="71" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" s="71" customFormat="1" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A55" s="71" t="s">
         <v>201</v>
       </c>
@@ -16441,7 +16441,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A56" s="71" t="s">
         <v>206</v>
       </c>
@@ -16470,7 +16470,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A57" s="71" t="s">
         <v>208</v>
       </c>
@@ -16497,7 +16497,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A58" s="71" t="s">
         <v>211</v>
       </c>
@@ -16526,7 +16526,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A59" s="71" t="s">
         <v>214</v>
       </c>
@@ -16553,7 +16553,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="71" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" s="71" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A60" s="71" t="s">
         <v>217</v>
       </c>
@@ -16574,30 +16574,30 @@
       </c>
       <c r="I60" s="74"/>
     </row>
-    <row r="61" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="90" t="s">
+    <row r="61" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="81" t="s">
         <v>220</v>
       </c>
-      <c r="C61" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="D61" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E61" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="F61" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H61" s="92" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="71" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" s="83" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="71" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="71" t="s">
         <v>221</v>
       </c>
@@ -16624,7 +16624,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="71" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" s="71" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="71" t="s">
         <v>226</v>
       </c>
@@ -16645,7 +16645,7 @@
       </c>
       <c r="I63" s="74"/>
     </row>
-    <row r="64" spans="1:9" s="71" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" s="71" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="71" t="s">
         <v>229</v>
       </c>
@@ -16674,7 +16674,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A65" s="71" t="s">
         <v>234</v>
       </c>
@@ -16703,7 +16703,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A66" s="71" t="s">
         <v>237</v>
       </c>
@@ -16732,7 +16732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A67" s="71" t="s">
         <v>241</v>
       </c>
@@ -16761,7 +16761,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="71" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" s="71" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A68" s="71" t="s">
         <v>245</v>
       </c>
@@ -16788,7 +16788,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="71" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" s="71" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="71" t="s">
         <v>251</v>
       </c>
@@ -16817,7 +16817,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="71" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" s="71" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A70" s="71" t="s">
         <v>255</v>
       </c>
@@ -16846,7 +16846,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A71" s="71" t="s">
         <v>260</v>
       </c>
@@ -16875,7 +16875,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="71" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" s="71" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A72" s="71" t="s">
         <v>266</v>
       </c>
@@ -16904,7 +16904,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="71" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" s="71" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="71" t="s">
         <v>269</v>
       </c>
@@ -16933,30 +16933,30 @@
         <v>338</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="90" t="s">
+    <row r="74" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="81" t="s">
         <v>273</v>
       </c>
-      <c r="C74" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="D74" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E74" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="F74" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H74" s="92" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" s="71" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H74" s="83" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="71" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="71" t="s">
         <v>274</v>
       </c>
@@ -16983,7 +16983,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="71" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" s="71" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="71" t="s">
         <v>280</v>
       </c>
@@ -17012,7 +17012,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="71" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" s="71" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A77" s="71" t="s">
         <v>285</v>
       </c>
@@ -17041,7 +17041,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="71" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" s="71" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="71" t="s">
         <v>288</v>
       </c>
@@ -17068,7 +17068,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A79" s="71" t="s">
         <v>293</v>
       </c>
@@ -17095,7 +17095,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="71" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" s="71" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A80" s="71" t="s">
         <v>295</v>
       </c>
@@ -17124,7 +17124,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="71" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" s="71" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="71" t="s">
         <v>299</v>
       </c>
@@ -17151,7 +17151,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A82" s="71" t="s">
         <v>305</v>
       </c>
@@ -17180,7 +17180,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="71" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" s="71" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A83" s="71" t="s">
         <v>307</v>
       </c>
@@ -17207,7 +17207,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="71" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" s="71" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="71" t="s">
         <v>311</v>
       </c>
@@ -17234,7 +17234,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="71" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" s="71" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A85" s="71" t="s">
         <v>315</v>
       </c>
@@ -17261,7 +17261,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A86" s="71" t="s">
         <v>320</v>
       </c>
@@ -17290,7 +17290,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A87" s="71" t="s">
         <v>324</v>
       </c>
@@ -17317,7 +17317,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A88" s="71" t="s">
         <v>329</v>
       </c>
@@ -17344,30 +17344,30 @@
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="90" t="s">
+    <row r="89" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="81" t="s">
         <v>333</v>
       </c>
-      <c r="C89" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="D89" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E89" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="F89" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H89" s="92" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="C89" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E89" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F89" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H89" s="83" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A90" s="71" t="s">
         <v>334</v>
       </c>
@@ -17394,7 +17394,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A91" s="71" t="s">
         <v>339</v>
       </c>
@@ -17421,7 +17421,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="71" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" s="71" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A92" s="71" t="s">
         <v>342</v>
       </c>
@@ -17450,7 +17450,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A93" s="71" t="s">
         <v>348</v>
       </c>
@@ -17477,7 +17477,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="71" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" s="71" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="71" t="s">
         <v>351</v>
       </c>
@@ -17504,7 +17504,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="71" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" s="71" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="71" t="s">
         <v>356</v>
       </c>
@@ -17531,7 +17531,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="96" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A96" s="71" t="s">
         <v>359</v>
       </c>
@@ -17560,7 +17560,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A97" s="71" t="s">
         <v>364</v>
       </c>
@@ -17587,7 +17587,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A98" s="71" t="s">
         <v>368</v>
       </c>
@@ -17614,7 +17614,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="71" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" s="71" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A99" s="71" t="s">
         <v>374</v>
       </c>
@@ -17643,7 +17643,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A100" s="71" t="s">
         <v>379</v>
       </c>
@@ -17672,30 +17672,30 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="90" t="s">
+    <row r="101" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="81" t="s">
         <v>382</v>
       </c>
-      <c r="C101" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="D101" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E101" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="F101" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G101" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H101" s="92" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="C101" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E101" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F101" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G101" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H101" s="83" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A102" s="71" t="s">
         <v>383</v>
       </c>
@@ -17724,7 +17724,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A103" s="71" t="s">
         <v>387</v>
       </c>
@@ -17753,7 +17753,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A104" s="71" t="s">
         <v>390</v>
       </c>
@@ -17782,7 +17782,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A105" s="71" t="s">
         <v>395</v>
       </c>
@@ -17811,7 +17811,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="71" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" s="71" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="71" t="s">
         <v>399</v>
       </c>
@@ -17838,7 +17838,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="71" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" s="71" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="71" t="s">
         <v>405</v>
       </c>
@@ -17865,30 +17865,30 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="90" t="s">
+    <row r="108" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="81" t="s">
         <v>410</v>
       </c>
-      <c r="C108" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="D108" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E108" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="F108" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G108" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H108" s="92" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="C108" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D108" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E108" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F108" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G108" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H108" s="83" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A109" s="71" t="s">
         <v>411</v>
       </c>
@@ -17917,7 +17917,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A110" s="71" t="s">
         <v>415</v>
       </c>
@@ -17946,7 +17946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="71" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" s="71" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A111" s="71" t="s">
         <v>419</v>
       </c>
@@ -17973,7 +17973,7 @@
       </c>
       <c r="I111" s="74"/>
     </row>
-    <row r="112" spans="1:9" s="71" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" s="71" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="71" t="s">
         <v>423</v>
       </c>
@@ -18002,7 +18002,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A113" s="71" t="s">
         <v>427</v>
       </c>
@@ -18029,7 +18029,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A114" s="71" t="s">
         <v>430</v>
       </c>
@@ -18056,7 +18056,7 @@
       </c>
       <c r="I114" s="74"/>
     </row>
-    <row r="115" spans="1:9" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A115" s="71" t="s">
         <v>434</v>
       </c>
@@ -18085,7 +18085,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A116" s="71" t="s">
         <v>436</v>
       </c>
@@ -18114,7 +18114,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="71" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" s="71" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A117" s="71" t="s">
         <v>439</v>
       </c>
@@ -18141,7 +18141,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A118" s="71" t="s">
         <v>443</v>
       </c>
@@ -18170,7 +18170,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="71" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" s="71" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A119" s="71" t="s">
         <v>447</v>
       </c>
@@ -18197,7 +18197,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A120" s="71" t="s">
         <v>450</v>
       </c>
@@ -18226,7 +18226,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A121" s="71" t="s">
         <v>454</v>
       </c>
@@ -18255,7 +18255,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A122" s="71" t="s">
         <v>459</v>
       </c>
@@ -18284,7 +18284,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="71" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" s="71" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A123" s="71" t="s">
         <v>461</v>
       </c>
@@ -18313,7 +18313,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A124" s="71" t="s">
         <v>465</v>
       </c>
@@ -18340,30 +18340,30 @@
         <v>468</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="90" t="s">
+    <row r="125" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="81" t="s">
         <v>469</v>
       </c>
-      <c r="C125" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="D125" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E125" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="F125" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G125" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H125" s="92" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="C125" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D125" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E125" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F125" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G125" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H125" s="83" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A126" s="71" t="s">
         <v>470</v>
       </c>
@@ -18390,7 +18390,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="127" spans="1:9" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A127" s="71" t="s">
         <v>475</v>
       </c>
@@ -18419,7 +18419,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A128" s="71" t="s">
         <v>479</v>
       </c>
@@ -18448,7 +18448,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A129" s="71" t="s">
         <v>483</v>
       </c>
@@ -18477,7 +18477,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A130" s="71" t="s">
         <v>485</v>
       </c>
@@ -18504,7 +18504,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="71" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" s="71" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="71" t="s">
         <v>489</v>
       </c>
@@ -18531,7 +18531,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="71" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" s="71" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A132" s="71" t="s">
         <v>493</v>
       </c>
@@ -18560,7 +18560,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="71" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" s="71" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A133" s="71" t="s">
         <v>497</v>
       </c>
@@ -18589,7 +18589,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A134" s="71" t="s">
         <v>500</v>
       </c>
@@ -18618,7 +18618,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="71" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" s="71" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A135" s="71" t="s">
         <v>502</v>
       </c>
@@ -18647,7 +18647,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="71" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" s="71" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A136" s="71" t="s">
         <v>505</v>
       </c>
@@ -18674,7 +18674,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A137" s="71" t="s">
         <v>508</v>
       </c>
@@ -18703,30 +18703,30 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="90" t="s">
+    <row r="138" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="81" t="s">
         <v>511</v>
       </c>
-      <c r="C138" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="D138" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E138" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="F138" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G138" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H138" s="92" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="C138" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D138" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E138" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F138" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G138" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H138" s="83" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A139" s="71" t="s">
         <v>512</v>
       </c>
@@ -18753,7 +18753,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A140" s="71" t="s">
         <v>515</v>
       </c>
@@ -18780,7 +18780,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="71" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" s="71" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A141" s="71" t="s">
         <v>519</v>
       </c>
@@ -18809,7 +18809,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A142" s="71" t="s">
         <v>523</v>
       </c>
@@ -18838,7 +18838,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A143" s="71" t="s">
         <v>527</v>
       </c>
@@ -18859,7 +18859,7 @@
       </c>
       <c r="I143" s="74"/>
     </row>
-    <row r="144" spans="1:9" s="71" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" s="71" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="71" t="s">
         <v>531</v>
       </c>
@@ -18886,7 +18886,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="145" spans="1:9" s="71" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" s="71" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="71" t="s">
         <v>535</v>
       </c>
@@ -18915,7 +18915,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A146" s="71" t="s">
         <v>540</v>
       </c>
@@ -18942,7 +18942,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="71" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" s="71" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="71" t="s">
         <v>545</v>
       </c>
@@ -18969,7 +18969,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="71" customFormat="1" ht="153" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" s="71" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A148" s="71" t="s">
         <v>549</v>
       </c>
@@ -18990,7 +18990,7 @@
       </c>
       <c r="I148" s="74"/>
     </row>
-    <row r="149" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A149" s="71" t="s">
         <v>554</v>
       </c>
@@ -19011,7 +19011,7 @@
       </c>
       <c r="I149" s="74"/>
     </row>
-    <row r="150" spans="1:9" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A150" s="71" t="s">
         <v>558</v>
       </c>
@@ -19040,7 +19040,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="71" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" s="71" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="71" t="s">
         <v>562</v>
       </c>
@@ -19067,7 +19067,7 @@
       </c>
       <c r="I151" s="74"/>
     </row>
-    <row r="152" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A152" s="71" t="s">
         <v>567</v>
       </c>
@@ -19094,30 +19094,30 @@
         <v>570</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="90" t="s">
+    <row r="153" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="81" t="s">
         <v>571</v>
       </c>
-      <c r="C153" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="D153" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E153" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="F153" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G153" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H153" s="92" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="C153" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D153" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E153" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F153" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G153" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H153" s="83" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A154" s="71" t="s">
         <v>572</v>
       </c>
@@ -19146,7 +19146,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="71" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" s="71" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A155" s="71" t="s">
         <v>575</v>
       </c>
@@ -19175,7 +19175,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A156" s="71" t="s">
         <v>579</v>
       </c>
@@ -19204,7 +19204,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="71" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" s="71" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="71" t="s">
         <v>582</v>
       </c>
@@ -19231,7 +19231,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="71" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" s="71" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A158" s="71" t="s">
         <v>585</v>
       </c>
@@ -19260,7 +19260,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="71" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" s="71" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A159" s="71" t="s">
         <v>45</v>
       </c>
@@ -19289,7 +19289,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="160" spans="1:9" s="71" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" s="71" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="71" t="s">
         <v>593</v>
       </c>
@@ -19316,7 +19316,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A161" s="71" t="s">
         <v>596</v>
       </c>
@@ -19343,7 +19343,7 @@
       </c>
       <c r="I161" s="74"/>
     </row>
-    <row r="162" spans="1:9" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A162" s="71" t="s">
         <v>600</v>
       </c>
@@ -19372,7 +19372,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="163" spans="1:9" s="71" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" s="71" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="71" t="s">
         <v>603</v>
       </c>
@@ -19399,7 +19399,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="164" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A164" s="71" t="s">
         <v>607</v>
       </c>
@@ -19426,7 +19426,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="71" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" s="71" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A165" s="71" t="s">
         <v>611</v>
       </c>
@@ -19453,7 +19453,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="166" spans="1:9" s="71" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" s="71" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A166" s="71" t="s">
         <v>56</v>
       </c>
@@ -19482,7 +19482,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="71" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" s="71" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="71" t="s">
         <v>60</v>
       </c>
@@ -19511,7 +19511,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="71" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" s="71" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="16" t="s">
         <v>618</v>
       </c>
@@ -19525,30 +19525,30 @@
       </c>
       <c r="I168" s="74"/>
     </row>
-    <row r="169" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="90" t="s">
+    <row r="169" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="81" t="s">
         <v>620</v>
       </c>
-      <c r="C169" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="D169" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E169" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="F169" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G169" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H169" s="92" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" s="71" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="C169" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D169" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E169" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F169" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G169" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H169" s="83" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" s="71" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A170" s="71" t="s">
         <v>621</v>
       </c>
@@ -19577,7 +19577,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="171" spans="1:9" s="71" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" s="71" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="71" t="s">
         <v>423</v>
       </c>
@@ -19606,7 +19606,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="172" spans="1:9" s="71" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" s="71" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="71" t="s">
         <v>427</v>
       </c>
@@ -19635,7 +19635,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="173" spans="1:9" s="71" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" s="71" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="71" t="s">
         <v>628</v>
       </c>
@@ -19662,7 +19662,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="174" spans="1:9" s="71" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" s="71" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A174" s="71" t="s">
         <v>633</v>
       </c>
@@ -19691,7 +19691,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="175" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A175" s="71" t="s">
         <v>636</v>
       </c>
@@ -19720,7 +19720,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="71" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" s="71" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="71" t="s">
         <v>641</v>
       </c>
@@ -19747,7 +19747,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="177" spans="1:9" s="71" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" s="71" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="71" t="s">
         <v>646</v>
       </c>
@@ -19774,7 +19774,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="178" spans="1:9" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A178" s="71" t="s">
         <v>651</v>
       </c>
@@ -19803,7 +19803,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="71" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" s="71" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="71" t="s">
         <v>255</v>
       </c>
@@ -19832,7 +19832,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A180" s="71" t="s">
         <v>405</v>
       </c>
@@ -19857,7 +19857,7 @@
       </c>
       <c r="I180" s="74"/>
     </row>
-    <row r="181" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A181" s="71" t="s">
         <v>660</v>
       </c>
@@ -19880,7 +19880,7 @@
       </c>
       <c r="I181" s="74"/>
     </row>
-    <row r="182" spans="1:9" s="71" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" s="71" customFormat="1" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A182" s="71" t="s">
         <v>663</v>
       </c>
@@ -19909,30 +19909,30 @@
         <v>39</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="70" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="90" t="s">
+    <row r="183" spans="1:9" s="70" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="81" t="s">
         <v>667</v>
       </c>
-      <c r="C183" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="D183" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E183" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="F183" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G183" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H183" s="92" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="C183" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D183" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E183" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F183" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G183" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H183" s="83" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A184" s="71" t="s">
         <v>45</v>
       </c>
@@ -19961,7 +19961,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="185" spans="1:9" s="71" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" s="71" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="71" t="s">
         <v>56</v>
       </c>
@@ -19990,7 +19990,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="186" spans="1:9" s="71" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" s="71" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="71" t="s">
         <v>60</v>
       </c>
@@ -20019,7 +20019,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="187" spans="1:9" s="71" customFormat="1" ht="153" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" s="71" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A187" s="71" t="s">
         <v>674</v>
       </c>
@@ -20044,7 +20044,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="188" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A188" s="71" t="s">
         <v>679</v>
       </c>
@@ -20065,7 +20065,7 @@
       </c>
       <c r="I188" s="74"/>
     </row>
-    <row r="189" spans="1:9" s="71" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" s="71" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A189" s="71" t="s">
         <v>255</v>
       </c>
@@ -20092,7 +20092,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="71" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" s="71" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A190" s="71" t="s">
         <v>685</v>
       </c>
@@ -20115,7 +20115,7 @@
       </c>
       <c r="I190" s="74"/>
     </row>
-    <row r="191" spans="1:9" s="71" customFormat="1" ht="153" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" s="71" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A191" s="71" t="s">
         <v>688</v>
       </c>
@@ -20142,30 +20142,30 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="90" t="s">
+    <row r="192" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B192" s="81" t="s">
         <v>691</v>
       </c>
-      <c r="C192" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="D192" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E192" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="F192" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G192" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H192" s="92" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" s="71" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="C192" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D192" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E192" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F192" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G192" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H192" s="83" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" s="71" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A193" s="71" t="s">
         <v>692</v>
       </c>
@@ -20194,7 +20194,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="194" spans="1:9" s="71" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" s="71" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A194" s="71" t="s">
         <v>697</v>
       </c>
@@ -20223,7 +20223,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="195" spans="1:9" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A195" s="71" t="s">
         <v>702</v>
       </c>
@@ -20250,7 +20250,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="196" spans="1:9" s="71" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" s="71" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A196" s="71" t="s">
         <v>706</v>
       </c>
@@ -20279,7 +20279,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A197" s="71" t="s">
         <v>709</v>
       </c>
@@ -20308,7 +20308,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="198" spans="1:9" s="71" customFormat="1" ht="143.25" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" s="71" customFormat="1" ht="147.6" x14ac:dyDescent="0.3">
       <c r="A198" s="71" t="s">
         <v>714</v>
       </c>
@@ -20335,7 +20335,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="199" spans="1:9" s="71" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" s="71" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A199" s="71" t="s">
         <v>718</v>
       </c>
@@ -20362,7 +20362,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="200" spans="1:9" s="71" customFormat="1" ht="153" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" s="71" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A200" s="71" t="s">
         <v>723</v>
       </c>
@@ -20389,7 +20389,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="201" spans="1:9" s="71" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" s="71" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="71" t="s">
         <v>727</v>
       </c>
@@ -20416,7 +20416,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="202" spans="1:9" s="71" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" s="71" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="71" t="s">
         <v>730</v>
       </c>
@@ -20443,30 +20443,30 @@
         <v>734</v>
       </c>
     </row>
-    <row r="203" spans="1:9" s="70" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="90" t="s">
+    <row r="203" spans="1:9" s="70" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B203" s="81" t="s">
         <v>735</v>
       </c>
-      <c r="C203" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="D203" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E203" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="F203" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G203" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H203" s="92" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" s="71" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="C203" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D203" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E203" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F203" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G203" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H203" s="83" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" s="71" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A204" s="71" t="s">
         <v>736</v>
       </c>
@@ -20495,7 +20495,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="205" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A205" s="71" t="s">
         <v>739</v>
       </c>
@@ -20524,7 +20524,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="206" spans="1:9" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A206" s="71" t="s">
         <v>741</v>
       </c>
@@ -20551,7 +20551,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="207" spans="1:9" s="71" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" s="71" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="71" t="s">
         <v>746</v>
       </c>
@@ -20578,7 +20578,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="208" spans="1:9" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A208" s="71" t="s">
         <v>752</v>
       </c>
@@ -20605,7 +20605,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="209" spans="1:9" s="71" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" s="71" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A209" s="71" t="s">
         <v>755</v>
       </c>
@@ -20632,7 +20632,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="210" spans="1:9" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A210" s="71" t="s">
         <v>757</v>
       </c>
@@ -20659,7 +20659,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="211" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A211" s="71" t="s">
         <v>762</v>
       </c>
@@ -20686,7 +20686,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="212" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A212" s="71" t="s">
         <v>767</v>
       </c>
@@ -20715,7 +20715,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="213" spans="1:9" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A213" s="71" t="s">
         <v>772</v>
       </c>
@@ -20744,7 +20744,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="214" spans="1:9" s="71" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" s="71" customFormat="1" ht="184.8" x14ac:dyDescent="0.3">
       <c r="A214" s="71" t="s">
         <v>776</v>
       </c>
@@ -20773,7 +20773,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="215" spans="1:9" s="71" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" s="71" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A215" s="71" t="s">
         <v>783</v>
       </c>
@@ -20800,7 +20800,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="216" spans="1:9" s="71" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" s="71" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A216" s="71" t="s">
         <v>783</v>
       </c>
@@ -20827,7 +20827,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="217" spans="1:9" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A217" s="71" t="s">
         <v>767</v>
       </c>
@@ -20856,30 +20856,30 @@
         <v>771</v>
       </c>
     </row>
-    <row r="218" spans="1:9" s="70" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="90" t="s">
+    <row r="218" spans="1:9" s="70" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B218" s="81" t="s">
         <v>792</v>
       </c>
-      <c r="C218" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="D218" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E218" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="F218" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G218" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H218" s="92" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="C218" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D218" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E218" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F218" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G218" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H218" s="83" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A219" s="71" t="s">
         <v>793</v>
       </c>
@@ -20906,7 +20906,7 @@
       </c>
       <c r="I219" s="74"/>
     </row>
-    <row r="220" spans="1:9" s="71" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" s="71" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="71" t="s">
         <v>800</v>
       </c>
@@ -20933,7 +20933,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="221" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A221" s="71" t="s">
         <v>805</v>
       </c>
@@ -20962,7 +20962,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="222" spans="1:9" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A222" s="71" t="s">
         <v>808</v>
       </c>
@@ -20991,7 +20991,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="223" spans="1:9" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A223" s="71" t="s">
         <v>810</v>
       </c>
@@ -21018,7 +21018,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="224" spans="1:9" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A224" s="71" t="s">
         <v>814</v>
       </c>
@@ -21045,7 +21045,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="225" spans="1:9" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A225" s="71" t="s">
         <v>816</v>
       </c>
@@ -21074,7 +21074,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="226" spans="1:9" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" s="71" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A226" s="71" t="s">
         <v>819</v>
       </c>
@@ -21103,7 +21103,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="227" spans="1:9" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A227" s="71" t="s">
         <v>822</v>
       </c>
@@ -21132,7 +21132,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="228" spans="1:9" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A228" s="71" t="s">
         <v>824</v>
       </c>
@@ -21153,7 +21153,7 @@
       </c>
       <c r="I228" s="74"/>
     </row>
-    <row r="229" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A229" s="71" t="s">
         <v>827</v>
       </c>
@@ -21180,7 +21180,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="230" spans="1:9" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A230" s="71" t="s">
         <v>831</v>
       </c>
@@ -21207,7 +21207,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="231" spans="1:9" s="71" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" s="71" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A231" s="71" t="s">
         <v>834</v>
       </c>
@@ -21236,7 +21236,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="232" spans="1:9" s="71" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" s="71" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A232" s="71" t="s">
         <v>837</v>
       </c>
@@ -21263,7 +21263,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="233" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A233" s="71" t="s">
         <v>841</v>
       </c>
@@ -21290,7 +21290,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="234" spans="1:9" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A234" s="71" t="s">
         <v>845</v>
       </c>
@@ -21317,7 +21317,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="235" spans="1:9" s="71" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" s="71" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A235" s="71" t="s">
         <v>849</v>
       </c>
@@ -21346,7 +21346,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="236" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A236" s="71" t="s">
         <v>857</v>
       </c>
@@ -21373,7 +21373,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="237" spans="1:9" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A237" s="71" t="s">
         <v>535</v>
       </c>
@@ -21402,7 +21402,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="238" spans="1:9" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A238" s="71" t="s">
         <v>861</v>
       </c>
@@ -21431,7 +21431,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="239" spans="1:9" s="71" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" s="71" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A239" s="71" t="s">
         <v>866</v>
       </c>
@@ -21458,7 +21458,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="240" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A240" s="71" t="s">
         <v>870</v>
       </c>
@@ -21485,7 +21485,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="241" spans="1:9" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A241" s="71" t="s">
         <v>874</v>
       </c>
@@ -21514,7 +21514,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="242" spans="1:9" s="71" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" s="71" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A242" s="71" t="s">
         <v>519</v>
       </c>
@@ -21543,41 +21543,41 @@
         <v>522</v>
       </c>
     </row>
-    <row r="243" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="90" t="s">
+    <row r="243" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B243" s="81" t="s">
         <v>879</v>
       </c>
-      <c r="C243" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="D243" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E243" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="F243" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G243" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H243" s="92" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="82" t="s">
+      <c r="C243" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D243" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E243" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F243" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G243" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H243" s="83" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" s="71" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B244" s="86" t="s">
         <v>880</v>
       </c>
-      <c r="C244" s="83"/>
-      <c r="D244" s="83"/>
-      <c r="E244" s="83"/>
-      <c r="F244" s="83"/>
-      <c r="G244" s="83"/>
-      <c r="H244" s="84"/>
-    </row>
-    <row r="245" spans="1:9" s="71" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C244" s="87"/>
+      <c r="D244" s="87"/>
+      <c r="E244" s="87"/>
+      <c r="F244" s="87"/>
+      <c r="G244" s="87"/>
+      <c r="H244" s="88"/>
+    </row>
+    <row r="245" spans="1:9" s="71" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="71" t="s">
         <v>881</v>
       </c>
@@ -21606,7 +21606,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="246" spans="1:9" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A246" s="71" t="s">
         <v>885</v>
       </c>
@@ -21635,7 +21635,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="247" spans="1:9" s="71" customFormat="1" ht="153" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" s="71" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A247" s="71" t="s">
         <v>887</v>
       </c>
@@ -21664,7 +21664,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="248" spans="1:9" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A248" s="71" t="s">
         <v>890</v>
       </c>
@@ -21691,7 +21691,7 @@
       </c>
       <c r="I248" s="74"/>
     </row>
-    <row r="249" spans="1:9" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A249" s="71" t="s">
         <v>897</v>
       </c>
@@ -21720,7 +21720,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="250" spans="1:9" s="71" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" s="71" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A250" s="71" t="s">
         <v>899</v>
       </c>
@@ -21749,7 +21749,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="251" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A251" s="71" t="s">
         <v>903</v>
       </c>
@@ -21778,18 +21778,18 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="252" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B252" s="82" t="s">
+    <row r="252" spans="1:9" s="71" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B252" s="86" t="s">
         <v>907</v>
       </c>
-      <c r="C252" s="83"/>
-      <c r="D252" s="83"/>
-      <c r="E252" s="83"/>
-      <c r="F252" s="83"/>
-      <c r="G252" s="83"/>
-      <c r="H252" s="84"/>
-    </row>
-    <row r="253" spans="1:9" s="71" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="C252" s="87"/>
+      <c r="D252" s="87"/>
+      <c r="E252" s="87"/>
+      <c r="F252" s="87"/>
+      <c r="G252" s="87"/>
+      <c r="H252" s="88"/>
+    </row>
+    <row r="253" spans="1:9" s="71" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A253" s="71" t="s">
         <v>908</v>
       </c>
@@ -21816,7 +21816,7 @@
       </c>
       <c r="I253" s="74"/>
     </row>
-    <row r="254" spans="1:9" s="71" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A254" s="71" t="s">
         <v>912</v>
       </c>
@@ -21845,7 +21845,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="255" spans="1:9" s="71" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" s="71" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A255" s="71" t="s">
         <v>916</v>
       </c>
@@ -21874,18 +21874,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="256" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B256" s="82" t="s">
+    <row r="256" spans="1:9" s="71" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B256" s="86" t="s">
         <v>919</v>
       </c>
-      <c r="C256" s="83"/>
-      <c r="D256" s="83"/>
-      <c r="E256" s="83"/>
-      <c r="F256" s="83"/>
-      <c r="G256" s="83"/>
-      <c r="H256" s="84"/>
-    </row>
-    <row r="257" spans="1:9" s="71" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="C256" s="87"/>
+      <c r="D256" s="87"/>
+      <c r="E256" s="87"/>
+      <c r="F256" s="87"/>
+      <c r="G256" s="87"/>
+      <c r="H256" s="88"/>
+    </row>
+    <row r="257" spans="1:9" s="71" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A257" s="71" t="s">
         <v>920</v>
       </c>
@@ -21914,18 +21914,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="258" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B258" s="82" t="s">
+    <row r="258" spans="1:9" s="71" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B258" s="86" t="s">
         <v>923</v>
       </c>
-      <c r="C258" s="83"/>
-      <c r="D258" s="83"/>
-      <c r="E258" s="83"/>
-      <c r="F258" s="83"/>
-      <c r="G258" s="83"/>
-      <c r="H258" s="84"/>
-    </row>
-    <row r="259" spans="1:9" s="71" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="C258" s="87"/>
+      <c r="D258" s="87"/>
+      <c r="E258" s="87"/>
+      <c r="F258" s="87"/>
+      <c r="G258" s="87"/>
+      <c r="H258" s="88"/>
+    </row>
+    <row r="259" spans="1:9" s="71" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A259" s="71" t="s">
         <v>924</v>
       </c>
@@ -21954,7 +21954,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="260" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A260" s="71" t="s">
         <v>928</v>
       </c>
@@ -21983,7 +21983,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="261" spans="1:9" s="71" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" s="71" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A261" s="71" t="s">
         <v>931</v>
       </c>
@@ -22010,29 +22010,29 @@
       </c>
       <c r="I261" s="74"/>
     </row>
-    <row r="262" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B262" s="82" t="s">
+    <row r="262" spans="1:9" s="71" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B262" s="86" t="s">
         <v>934</v>
       </c>
-      <c r="C262" s="83"/>
-      <c r="D262" s="83"/>
-      <c r="E262" s="83"/>
-      <c r="F262" s="83"/>
-      <c r="G262" s="83"/>
-      <c r="H262" s="84"/>
-    </row>
-    <row r="263" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B263" s="85" t="s">
+      <c r="C262" s="87"/>
+      <c r="D262" s="87"/>
+      <c r="E262" s="87"/>
+      <c r="F262" s="87"/>
+      <c r="G262" s="87"/>
+      <c r="H262" s="88"/>
+    </row>
+    <row r="263" spans="1:9" s="71" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B263" s="89" t="s">
         <v>935</v>
       </c>
-      <c r="C263" s="86"/>
-      <c r="D263" s="86"/>
-      <c r="E263" s="86"/>
-      <c r="F263" s="86"/>
-      <c r="G263" s="86"/>
-      <c r="H263" s="87"/>
-    </row>
-    <row r="264" spans="1:9" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="C263" s="90"/>
+      <c r="D263" s="90"/>
+      <c r="E263" s="90"/>
+      <c r="F263" s="90"/>
+      <c r="G263" s="90"/>
+      <c r="H263" s="91"/>
+    </row>
+    <row r="264" spans="1:9" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A264" s="71" t="s">
         <v>936</v>
       </c>
@@ -22059,7 +22059,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="265" spans="1:9" s="71" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" s="71" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="71" t="s">
         <v>939</v>
       </c>
@@ -22086,7 +22086,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="266" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A266" s="71" t="s">
         <v>943</v>
       </c>
@@ -22115,18 +22115,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="267" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="85" t="s">
+    <row r="267" spans="1:9" s="71" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B267" s="89" t="s">
         <v>947</v>
       </c>
-      <c r="C267" s="86"/>
-      <c r="D267" s="86"/>
-      <c r="E267" s="86"/>
-      <c r="F267" s="86"/>
-      <c r="G267" s="86"/>
-      <c r="H267" s="87"/>
-    </row>
-    <row r="268" spans="1:9" s="71" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="C267" s="90"/>
+      <c r="D267" s="90"/>
+      <c r="E267" s="90"/>
+      <c r="F267" s="90"/>
+      <c r="G267" s="90"/>
+      <c r="H267" s="91"/>
+    </row>
+    <row r="268" spans="1:9" s="71" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A268" s="71" t="s">
         <v>948</v>
       </c>
@@ -22155,7 +22155,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="269" spans="1:9" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A269" s="71" t="s">
         <v>951</v>
       </c>
@@ -22182,18 +22182,18 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="270" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B270" s="85" t="s">
+    <row r="270" spans="1:9" s="71" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B270" s="89" t="s">
         <v>955</v>
       </c>
-      <c r="C270" s="86"/>
-      <c r="D270" s="86"/>
-      <c r="E270" s="86"/>
-      <c r="F270" s="86"/>
-      <c r="G270" s="86"/>
-      <c r="H270" s="87"/>
-    </row>
-    <row r="271" spans="1:9" s="71" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="C270" s="90"/>
+      <c r="D270" s="90"/>
+      <c r="E270" s="90"/>
+      <c r="F270" s="90"/>
+      <c r="G270" s="90"/>
+      <c r="H270" s="91"/>
+    </row>
+    <row r="271" spans="1:9" s="71" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A271" s="71" t="s">
         <v>956</v>
       </c>
@@ -22214,7 +22214,7 @@
       </c>
       <c r="I271" s="74"/>
     </row>
-    <row r="272" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A272" s="71" t="s">
         <v>959</v>
       </c>
@@ -22241,7 +22241,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="273" spans="1:9" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A273" s="71" t="s">
         <v>962</v>
       </c>
@@ -22270,7 +22270,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="274" spans="1:9" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A274" s="71" t="s">
         <v>966</v>
       </c>
@@ -22299,7 +22299,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="275" spans="1:9" s="71" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" s="71" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A275" s="71" t="s">
         <v>969</v>
       </c>
@@ -22328,59 +22328,65 @@
         <v>22</v>
       </c>
     </row>
-    <row r="276" spans="1:9" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B276" s="88" t="s">
+    <row r="276" spans="1:9" s="72" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B276" s="92" t="s">
         <v>972</v>
       </c>
-      <c r="C276" s="88"/>
-      <c r="D276" s="88"/>
-      <c r="E276" s="88"/>
-      <c r="F276" s="88"/>
-      <c r="G276" s="88"/>
-      <c r="H276" s="88"/>
-    </row>
-    <row r="277" spans="1:9" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B277" s="89" t="s">
+      <c r="C276" s="92"/>
+      <c r="D276" s="92"/>
+      <c r="E276" s="92"/>
+      <c r="F276" s="92"/>
+      <c r="G276" s="92"/>
+      <c r="H276" s="92"/>
+    </row>
+    <row r="277" spans="1:9" s="72" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B277" s="93" t="s">
         <v>973</v>
       </c>
-      <c r="C277" s="89"/>
-      <c r="D277" s="89"/>
-      <c r="E277" s="89"/>
-      <c r="F277" s="89"/>
-      <c r="G277" s="89"/>
-      <c r="H277" s="89"/>
-    </row>
-    <row r="278" spans="1:9" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B278" s="89" t="s">
+      <c r="C277" s="93"/>
+      <c r="D277" s="93"/>
+      <c r="E277" s="93"/>
+      <c r="F277" s="93"/>
+      <c r="G277" s="93"/>
+      <c r="H277" s="93"/>
+    </row>
+    <row r="278" spans="1:9" s="72" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B278" s="93" t="s">
         <v>974</v>
       </c>
-      <c r="C278" s="89"/>
-      <c r="D278" s="89"/>
-      <c r="E278" s="89"/>
-      <c r="F278" s="89"/>
-      <c r="G278" s="89"/>
-      <c r="H278" s="89"/>
-    </row>
-    <row r="279" spans="1:9" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B279" s="81" t="s">
+      <c r="C278" s="93"/>
+      <c r="D278" s="93"/>
+      <c r="E278" s="93"/>
+      <c r="F278" s="93"/>
+      <c r="G278" s="93"/>
+      <c r="H278" s="93"/>
+    </row>
+    <row r="279" spans="1:9" s="72" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B279" s="85" t="s">
         <v>975</v>
       </c>
-      <c r="C279" s="81"/>
-      <c r="D279" s="81"/>
-      <c r="E279" s="81"/>
-      <c r="F279" s="81"/>
-      <c r="G279" s="81"/>
-      <c r="H279" s="81"/>
+      <c r="C279" s="85"/>
+      <c r="D279" s="85"/>
+      <c r="E279" s="85"/>
+      <c r="F279" s="85"/>
+      <c r="G279" s="85"/>
+      <c r="H279" s="85"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:I279" xr:uid="{6B1B4B68-CDE7-4773-B6E3-1B4E74E676EC}"/>
   <mergeCells count="30">
-    <mergeCell ref="B74:H74"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B279:H279"/>
+    <mergeCell ref="B244:H244"/>
+    <mergeCell ref="B252:H252"/>
+    <mergeCell ref="B256:H256"/>
+    <mergeCell ref="B258:H258"/>
+    <mergeCell ref="B262:H262"/>
+    <mergeCell ref="B263:H263"/>
+    <mergeCell ref="B267:H267"/>
+    <mergeCell ref="B270:H270"/>
+    <mergeCell ref="B276:H276"/>
+    <mergeCell ref="B277:H277"/>
+    <mergeCell ref="B278:H278"/>
     <mergeCell ref="B243:H243"/>
     <mergeCell ref="B89:H89"/>
     <mergeCell ref="B101:H101"/>
@@ -22393,18 +22399,12 @@
     <mergeCell ref="B192:H192"/>
     <mergeCell ref="B203:H203"/>
     <mergeCell ref="B218:H218"/>
-    <mergeCell ref="B279:H279"/>
-    <mergeCell ref="B244:H244"/>
-    <mergeCell ref="B252:H252"/>
-    <mergeCell ref="B256:H256"/>
-    <mergeCell ref="B258:H258"/>
-    <mergeCell ref="B262:H262"/>
-    <mergeCell ref="B263:H263"/>
-    <mergeCell ref="B267:H267"/>
-    <mergeCell ref="B270:H270"/>
-    <mergeCell ref="B276:H276"/>
-    <mergeCell ref="B277:H277"/>
-    <mergeCell ref="B278:H278"/>
+    <mergeCell ref="B74:H74"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B61:H61"/>
   </mergeCells>
   <pageMargins left="0.1" right="0.1" top="0.25" bottom="0.25" header="0.05" footer="0.05"/>
   <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -22423,35 +22423,35 @@
   </sheetPr>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="38" style="47" customWidth="1"/>
     <col min="8" max="8" width="11" style="6" customWidth="1"/>
-    <col min="9" max="10" width="8.85546875" style="6"/>
-    <col min="11" max="16384" width="8.85546875" style="7"/>
+    <col min="9" max="10" width="8.88671875" style="6"/>
+    <col min="11" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="93" t="s">
+    <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="84" t="s">
         <v>1047</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-    </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.3">
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+    </row>
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="38" t="s">
         <v>3</v>
@@ -22475,7 +22475,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:13" s="15" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="15" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="41" t="s">
         <v>1051</v>
       </c>
@@ -22499,7 +22499,7 @@
       <c r="J3" s="22"/>
       <c r="M3" s="22"/>
     </row>
-    <row r="4" spans="1:13" s="15" customFormat="1" ht="118.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="15" customFormat="1" ht="118.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="41" t="s">
         <v>1054</v>
       </c>
@@ -22523,7 +22523,7 @@
       <c r="J4" s="22"/>
       <c r="M4" s="22"/>
     </row>
-    <row r="5" spans="1:13" s="15" customFormat="1" ht="118.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="15" customFormat="1" ht="118.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="41" t="s">
         <v>1056</v>
       </c>
@@ -22547,7 +22547,7 @@
       <c r="J5" s="22"/>
       <c r="M5" s="22"/>
     </row>
-    <row r="6" spans="1:13" s="15" customFormat="1" ht="92.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="15" customFormat="1" ht="92.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="41" t="s">
         <v>1058</v>
       </c>
@@ -22571,7 +22571,7 @@
       <c r="J6" s="22"/>
       <c r="M6" s="22"/>
     </row>
-    <row r="7" spans="1:13" s="15" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="15" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="41" t="s">
         <v>1060</v>
       </c>
@@ -22595,7 +22595,7 @@
       <c r="J7" s="22"/>
       <c r="M7" s="22"/>
     </row>
-    <row r="8" spans="1:13" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="66" x14ac:dyDescent="0.3">
       <c r="B8" s="41" t="s">
         <v>1064</v>
       </c>
@@ -22631,12 +22631,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22863,15 +22860,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0E031C4-B4FD-4645-82D1-7F57E6C194D9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB365EA7-6D7C-4914-BFB9-6D46B124F572}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22896,10 +22897,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB365EA7-6D7C-4914-BFB9-6D46B124F572}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0E031C4-B4FD-4645-82D1-7F57E6C194D9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Input/Tier_Classification_of_SDG_Indicators_29_Mar_2021_web.xlsx
+++ b/Input/Tier_Classification_of_SDG_Indicators_29_Mar_2021_web.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\sdg_tier_classifications\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B420E03-7DC3-40E6-877A-BDC3F401331B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0167145-F76B-419B-97CB-84765DF30498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="1" r:id="rId1"/>
@@ -6190,18 +6190,6 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6228,6 +6216,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="73">
@@ -6686,15 +6686,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27.6" x14ac:dyDescent="0.45">
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
     </row>
     <row r="2" spans="1:18" s="10" customFormat="1" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -6726,15 +6726,15 @@
       <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:18" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="83"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="92"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
@@ -7132,25 +7132,25 @@
       <c r="N16" s="22"/>
     </row>
     <row r="17" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="83" t="s">
+      <c r="C17" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="92" t="s">
         <v>22</v>
       </c>
       <c r="I17" s="14"/>
@@ -7576,25 +7576,25 @@
       <c r="N31" s="22"/>
     </row>
     <row r="32" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="81" t="s">
+      <c r="B32" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="83" t="s">
+      <c r="C32" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="92" t="s">
         <v>22</v>
       </c>
       <c r="I32" s="14"/>
@@ -8438,25 +8438,25 @@
       <c r="N60" s="22"/>
     </row>
     <row r="61" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="81" t="s">
+      <c r="B61" s="90" t="s">
         <v>220</v>
       </c>
-      <c r="C61" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="D61" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="E61" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="F61" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H61" s="83" t="s">
+      <c r="C61" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" s="92" t="s">
         <v>22</v>
       </c>
       <c r="I61" s="14"/>
@@ -8824,25 +8824,25 @@
       <c r="N73" s="22"/>
     </row>
     <row r="74" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="81" t="s">
+      <c r="B74" s="90" t="s">
         <v>273</v>
       </c>
-      <c r="C74" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="D74" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="E74" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="F74" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H74" s="83" t="s">
+      <c r="C74" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H74" s="92" t="s">
         <v>22</v>
       </c>
       <c r="I74" s="14"/>
@@ -9270,25 +9270,25 @@
       <c r="N88" s="22"/>
     </row>
     <row r="89" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="81" t="s">
+      <c r="B89" s="90" t="s">
         <v>333</v>
       </c>
-      <c r="C89" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="D89" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="E89" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="F89" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H89" s="83" t="s">
+      <c r="C89" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E89" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F89" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H89" s="92" t="s">
         <v>22</v>
       </c>
       <c r="I89" s="14"/>
@@ -9626,25 +9626,25 @@
       <c r="N100" s="22"/>
     </row>
     <row r="101" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="81" t="s">
+      <c r="B101" s="90" t="s">
         <v>382</v>
       </c>
-      <c r="C101" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="D101" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="E101" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="F101" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G101" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H101" s="83" t="s">
+      <c r="C101" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E101" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F101" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G101" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H101" s="92" t="s">
         <v>22</v>
       </c>
       <c r="I101" s="14"/>
@@ -9830,25 +9830,25 @@
       <c r="N107" s="22"/>
     </row>
     <row r="108" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="81" t="s">
+      <c r="B108" s="90" t="s">
         <v>410</v>
       </c>
-      <c r="C108" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="D108" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="E108" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="F108" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G108" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H108" s="83" t="s">
+      <c r="C108" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D108" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E108" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F108" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G108" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H108" s="92" t="s">
         <v>22</v>
       </c>
       <c r="I108" s="14"/>
@@ -10336,25 +10336,25 @@
       <c r="N124" s="22"/>
     </row>
     <row r="125" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="81" t="s">
+      <c r="B125" s="90" t="s">
         <v>469</v>
       </c>
-      <c r="C125" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="D125" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="E125" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="F125" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G125" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H125" s="83" t="s">
+      <c r="C125" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D125" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E125" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F125" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G125" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H125" s="92" t="s">
         <v>22</v>
       </c>
       <c r="I125" s="14"/>
@@ -10722,25 +10722,25 @@
       <c r="N137" s="22"/>
     </row>
     <row r="138" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="81" t="s">
+      <c r="B138" s="90" t="s">
         <v>511</v>
       </c>
-      <c r="C138" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="D138" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="E138" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="F138" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G138" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H138" s="83" t="s">
+      <c r="C138" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D138" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E138" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F138" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G138" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H138" s="92" t="s">
         <v>22</v>
       </c>
       <c r="I138" s="14"/>
@@ -11158,25 +11158,25 @@
       <c r="N152" s="22"/>
     </row>
     <row r="153" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="81" t="s">
+      <c r="B153" s="90" t="s">
         <v>571</v>
       </c>
-      <c r="C153" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="D153" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="E153" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="F153" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G153" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H153" s="83" t="s">
+      <c r="C153" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D153" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E153" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F153" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G153" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H153" s="92" t="s">
         <v>22</v>
       </c>
       <c r="I153" s="14"/>
@@ -11619,25 +11619,25 @@
       <c r="N168" s="22"/>
     </row>
     <row r="169" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="81" t="s">
+      <c r="B169" s="90" t="s">
         <v>620</v>
       </c>
-      <c r="C169" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="D169" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="E169" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="F169" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G169" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H169" s="83" t="s">
+      <c r="C169" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D169" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E169" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F169" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G169" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H169" s="92" t="s">
         <v>22</v>
       </c>
       <c r="I169" s="14"/>
@@ -12031,25 +12031,25 @@
       <c r="N182" s="22"/>
     </row>
     <row r="183" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="81" t="s">
+      <c r="B183" s="90" t="s">
         <v>667</v>
       </c>
-      <c r="C183" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="D183" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="E183" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="F183" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G183" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H183" s="83" t="s">
+      <c r="C183" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D183" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E183" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F183" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G183" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H183" s="92" t="s">
         <v>22</v>
       </c>
       <c r="I183" s="14"/>
@@ -12285,25 +12285,25 @@
       <c r="N191" s="22"/>
     </row>
     <row r="192" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="81" t="s">
+      <c r="B192" s="90" t="s">
         <v>691</v>
       </c>
-      <c r="C192" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="D192" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="E192" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="F192" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G192" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H192" s="83" t="s">
+      <c r="C192" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D192" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E192" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F192" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G192" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H192" s="92" t="s">
         <v>22</v>
       </c>
       <c r="I192" s="14"/>
@@ -12613,25 +12613,25 @@
       <c r="N202" s="22"/>
     </row>
     <row r="203" spans="1:14" s="13" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="81" t="s">
+      <c r="B203" s="90" t="s">
         <v>735</v>
       </c>
-      <c r="C203" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="D203" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="E203" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="F203" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G203" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H203" s="83" t="s">
+      <c r="C203" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D203" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E203" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F203" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G203" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H203" s="92" t="s">
         <v>22</v>
       </c>
       <c r="I203" s="14"/>
@@ -13059,25 +13059,25 @@
       <c r="N217" s="22"/>
     </row>
     <row r="218" spans="1:14" s="13" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B218" s="81" t="s">
+      <c r="B218" s="90" t="s">
         <v>792</v>
       </c>
-      <c r="C218" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="D218" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="E218" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="F218" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G218" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H218" s="83" t="s">
+      <c r="C218" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D218" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E218" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F218" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G218" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H218" s="92" t="s">
         <v>22</v>
       </c>
       <c r="I218" s="14"/>
@@ -13803,25 +13803,25 @@
       <c r="N242" s="22"/>
     </row>
     <row r="243" spans="1:14" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B243" s="81" t="s">
+      <c r="B243" s="90" t="s">
         <v>879</v>
       </c>
-      <c r="C243" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="D243" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="E243" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="F243" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G243" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H243" s="83" t="s">
+      <c r="C243" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D243" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E243" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F243" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G243" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H243" s="92" t="s">
         <v>22</v>
       </c>
       <c r="I243" s="14"/>
@@ -13829,15 +13829,15 @@
       <c r="K243" s="14"/>
     </row>
     <row r="244" spans="1:14" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B244" s="86" t="s">
+      <c r="B244" s="82" t="s">
         <v>880</v>
       </c>
-      <c r="C244" s="87"/>
-      <c r="D244" s="87"/>
-      <c r="E244" s="87"/>
-      <c r="F244" s="87"/>
-      <c r="G244" s="87"/>
-      <c r="H244" s="88"/>
+      <c r="C244" s="83"/>
+      <c r="D244" s="83"/>
+      <c r="E244" s="83"/>
+      <c r="F244" s="83"/>
+      <c r="G244" s="83"/>
+      <c r="H244" s="84"/>
       <c r="I244" s="22"/>
       <c r="J244" s="22"/>
       <c r="K244" s="22"/>
@@ -14056,15 +14056,15 @@
       <c r="N251" s="22"/>
     </row>
     <row r="252" spans="1:14" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B252" s="86" t="s">
+      <c r="B252" s="82" t="s">
         <v>907</v>
       </c>
-      <c r="C252" s="87"/>
-      <c r="D252" s="87"/>
-      <c r="E252" s="87"/>
-      <c r="F252" s="87"/>
-      <c r="G252" s="87"/>
-      <c r="H252" s="88"/>
+      <c r="C252" s="83"/>
+      <c r="D252" s="83"/>
+      <c r="E252" s="83"/>
+      <c r="F252" s="83"/>
+      <c r="G252" s="83"/>
+      <c r="H252" s="84"/>
       <c r="I252" s="22"/>
       <c r="J252" s="22"/>
       <c r="K252" s="22"/>
@@ -14161,15 +14161,15 @@
       <c r="N255" s="22"/>
     </row>
     <row r="256" spans="1:14" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B256" s="86" t="s">
+      <c r="B256" s="82" t="s">
         <v>919</v>
       </c>
-      <c r="C256" s="87"/>
-      <c r="D256" s="87"/>
-      <c r="E256" s="87"/>
-      <c r="F256" s="87"/>
-      <c r="G256" s="87"/>
-      <c r="H256" s="88"/>
+      <c r="C256" s="83"/>
+      <c r="D256" s="83"/>
+      <c r="E256" s="83"/>
+      <c r="F256" s="83"/>
+      <c r="G256" s="83"/>
+      <c r="H256" s="84"/>
       <c r="I256" s="22"/>
       <c r="J256" s="22"/>
       <c r="K256" s="22"/>
@@ -14206,15 +14206,15 @@
       <c r="N257" s="22"/>
     </row>
     <row r="258" spans="1:14" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B258" s="86" t="s">
+      <c r="B258" s="82" t="s">
         <v>923</v>
       </c>
-      <c r="C258" s="87"/>
-      <c r="D258" s="87"/>
-      <c r="E258" s="87"/>
-      <c r="F258" s="87"/>
-      <c r="G258" s="87"/>
-      <c r="H258" s="88"/>
+      <c r="C258" s="83"/>
+      <c r="D258" s="83"/>
+      <c r="E258" s="83"/>
+      <c r="F258" s="83"/>
+      <c r="G258" s="83"/>
+      <c r="H258" s="84"/>
       <c r="I258" s="22"/>
       <c r="J258" s="22"/>
       <c r="K258" s="22"/>
@@ -14311,30 +14311,30 @@
       <c r="N261" s="22"/>
     </row>
     <row r="262" spans="1:14" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B262" s="86" t="s">
+      <c r="B262" s="82" t="s">
         <v>934</v>
       </c>
-      <c r="C262" s="87"/>
-      <c r="D262" s="87"/>
-      <c r="E262" s="87"/>
-      <c r="F262" s="87"/>
-      <c r="G262" s="87"/>
-      <c r="H262" s="88"/>
+      <c r="C262" s="83"/>
+      <c r="D262" s="83"/>
+      <c r="E262" s="83"/>
+      <c r="F262" s="83"/>
+      <c r="G262" s="83"/>
+      <c r="H262" s="84"/>
       <c r="I262" s="22"/>
       <c r="J262" s="22"/>
       <c r="K262" s="22"/>
       <c r="N262" s="22"/>
     </row>
     <row r="263" spans="1:14" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B263" s="89" t="s">
+      <c r="B263" s="85" t="s">
         <v>935</v>
       </c>
-      <c r="C263" s="90"/>
-      <c r="D263" s="90"/>
-      <c r="E263" s="90"/>
-      <c r="F263" s="90"/>
-      <c r="G263" s="90"/>
-      <c r="H263" s="91"/>
+      <c r="C263" s="86"/>
+      <c r="D263" s="86"/>
+      <c r="E263" s="86"/>
+      <c r="F263" s="86"/>
+      <c r="G263" s="86"/>
+      <c r="H263" s="87"/>
       <c r="I263" s="22"/>
       <c r="J263" s="22"/>
       <c r="K263" s="22"/>
@@ -14431,15 +14431,15 @@
       <c r="N266" s="22"/>
     </row>
     <row r="267" spans="1:14" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B267" s="89" t="s">
+      <c r="B267" s="85" t="s">
         <v>947</v>
       </c>
-      <c r="C267" s="90"/>
-      <c r="D267" s="90"/>
-      <c r="E267" s="90"/>
-      <c r="F267" s="90"/>
-      <c r="G267" s="90"/>
-      <c r="H267" s="91"/>
+      <c r="C267" s="86"/>
+      <c r="D267" s="86"/>
+      <c r="E267" s="86"/>
+      <c r="F267" s="86"/>
+      <c r="G267" s="86"/>
+      <c r="H267" s="87"/>
       <c r="I267" s="22"/>
       <c r="J267" s="22"/>
       <c r="K267" s="22"/>
@@ -14504,15 +14504,15 @@
       <c r="N269" s="22"/>
     </row>
     <row r="270" spans="1:14" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B270" s="89" t="s">
+      <c r="B270" s="85" t="s">
         <v>955</v>
       </c>
-      <c r="C270" s="90"/>
-      <c r="D270" s="90"/>
-      <c r="E270" s="90"/>
-      <c r="F270" s="90"/>
-      <c r="G270" s="90"/>
-      <c r="H270" s="91"/>
+      <c r="C270" s="86"/>
+      <c r="D270" s="86"/>
+      <c r="E270" s="86"/>
+      <c r="F270" s="86"/>
+      <c r="G270" s="86"/>
+      <c r="H270" s="87"/>
       <c r="I270" s="22"/>
       <c r="J270" s="22"/>
       <c r="K270" s="22"/>
@@ -14663,57 +14663,57 @@
       <c r="N275" s="22"/>
     </row>
     <row r="276" spans="1:14" s="57" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B276" s="92" t="s">
+      <c r="B276" s="88" t="s">
         <v>972</v>
       </c>
-      <c r="C276" s="92"/>
-      <c r="D276" s="92"/>
-      <c r="E276" s="92"/>
-      <c r="F276" s="92"/>
-      <c r="G276" s="92"/>
-      <c r="H276" s="92"/>
+      <c r="C276" s="88"/>
+      <c r="D276" s="88"/>
+      <c r="E276" s="88"/>
+      <c r="F276" s="88"/>
+      <c r="G276" s="88"/>
+      <c r="H276" s="88"/>
       <c r="I276" s="56"/>
       <c r="J276" s="56"/>
       <c r="K276" s="56"/>
     </row>
     <row r="277" spans="1:14" s="57" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B277" s="93" t="s">
+      <c r="B277" s="89" t="s">
         <v>973</v>
       </c>
-      <c r="C277" s="93"/>
-      <c r="D277" s="93"/>
-      <c r="E277" s="93"/>
-      <c r="F277" s="93"/>
-      <c r="G277" s="93"/>
-      <c r="H277" s="93"/>
+      <c r="C277" s="89"/>
+      <c r="D277" s="89"/>
+      <c r="E277" s="89"/>
+      <c r="F277" s="89"/>
+      <c r="G277" s="89"/>
+      <c r="H277" s="89"/>
       <c r="I277" s="56"/>
       <c r="J277" s="56"/>
       <c r="K277" s="56"/>
     </row>
     <row r="278" spans="1:14" s="57" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B278" s="93" t="s">
+      <c r="B278" s="89" t="s">
         <v>974</v>
       </c>
-      <c r="C278" s="93"/>
-      <c r="D278" s="93"/>
-      <c r="E278" s="93"/>
-      <c r="F278" s="93"/>
-      <c r="G278" s="93"/>
-      <c r="H278" s="93"/>
+      <c r="C278" s="89"/>
+      <c r="D278" s="89"/>
+      <c r="E278" s="89"/>
+      <c r="F278" s="89"/>
+      <c r="G278" s="89"/>
+      <c r="H278" s="89"/>
       <c r="I278" s="56"/>
       <c r="J278" s="56"/>
       <c r="K278" s="56"/>
     </row>
     <row r="279" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B279" s="85" t="s">
+      <c r="B279" s="81" t="s">
         <v>975</v>
       </c>
-      <c r="C279" s="85"/>
-      <c r="D279" s="85"/>
-      <c r="E279" s="85"/>
-      <c r="F279" s="85"/>
-      <c r="G279" s="85"/>
-      <c r="H279" s="85"/>
+      <c r="C279" s="81"/>
+      <c r="D279" s="81"/>
+      <c r="E279" s="81"/>
+      <c r="F279" s="81"/>
+      <c r="G279" s="81"/>
+      <c r="H279" s="81"/>
       <c r="I279" s="56"/>
       <c r="J279" s="56"/>
       <c r="K279" s="56"/>
@@ -14721,6 +14721,24 @@
   </sheetData>
   <autoFilter ref="A2:I279" xr:uid="{6B1B4B68-CDE7-4773-B6E3-1B4E74E676EC}"/>
   <mergeCells count="30">
+    <mergeCell ref="B74:H74"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B243:H243"/>
+    <mergeCell ref="B89:H89"/>
+    <mergeCell ref="B101:H101"/>
+    <mergeCell ref="B108:H108"/>
+    <mergeCell ref="B125:H125"/>
+    <mergeCell ref="B138:H138"/>
+    <mergeCell ref="B153:H153"/>
+    <mergeCell ref="B169:H169"/>
+    <mergeCell ref="B183:H183"/>
+    <mergeCell ref="B192:H192"/>
+    <mergeCell ref="B203:H203"/>
+    <mergeCell ref="B218:H218"/>
     <mergeCell ref="B279:H279"/>
     <mergeCell ref="B244:H244"/>
     <mergeCell ref="B252:H252"/>
@@ -14733,24 +14751,6 @@
     <mergeCell ref="B276:H276"/>
     <mergeCell ref="B277:H277"/>
     <mergeCell ref="B278:H278"/>
-    <mergeCell ref="B243:H243"/>
-    <mergeCell ref="B89:H89"/>
-    <mergeCell ref="B101:H101"/>
-    <mergeCell ref="B108:H108"/>
-    <mergeCell ref="B125:H125"/>
-    <mergeCell ref="B138:H138"/>
-    <mergeCell ref="B153:H153"/>
-    <mergeCell ref="B169:H169"/>
-    <mergeCell ref="B183:H183"/>
-    <mergeCell ref="B192:H192"/>
-    <mergeCell ref="B203:H203"/>
-    <mergeCell ref="B218:H218"/>
-    <mergeCell ref="B74:H74"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B61:H61"/>
   </mergeCells>
   <pageMargins left="0.1" right="0.1" top="0.25" bottom="0.25" header="0.05" footer="0.05"/>
   <pageSetup scale="84" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -14941,8 +14941,8 @@
   </sheetPr>
   <dimension ref="A1:I279"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14960,15 +14960,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27.6" x14ac:dyDescent="0.45">
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="93" t="s">
         <v>1079</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
       <c r="I1" s="73"/>
     </row>
     <row r="2" spans="1:9" s="77" customFormat="1" ht="50.4" x14ac:dyDescent="0.3">
@@ -15001,15 +15001,15 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="83"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="92"/>
     </row>
     <row r="4" spans="1:9" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" s="71" t="s">
@@ -15365,25 +15365,25 @@
       <c r="I16" s="74"/>
     </row>
     <row r="17" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="83" t="s">
+      <c r="C17" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="92" t="s">
         <v>22</v>
       </c>
     </row>
@@ -15776,25 +15776,25 @@
       </c>
     </row>
     <row r="32" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="81" t="s">
+      <c r="B32" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="83" t="s">
+      <c r="C32" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="92" t="s">
         <v>22</v>
       </c>
     </row>
@@ -16575,25 +16575,25 @@
       <c r="I60" s="74"/>
     </row>
     <row r="61" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="81" t="s">
+      <c r="B61" s="90" t="s">
         <v>220</v>
       </c>
-      <c r="C61" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="D61" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="E61" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="F61" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H61" s="83" t="s">
+      <c r="C61" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" s="92" t="s">
         <v>22</v>
       </c>
     </row>
@@ -16934,25 +16934,25 @@
       </c>
     </row>
     <row r="74" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="81" t="s">
+      <c r="B74" s="90" t="s">
         <v>273</v>
       </c>
-      <c r="C74" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="D74" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="E74" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="F74" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H74" s="83" t="s">
+      <c r="C74" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H74" s="92" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17345,25 +17345,25 @@
       </c>
     </row>
     <row r="89" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="81" t="s">
+      <c r="B89" s="90" t="s">
         <v>333</v>
       </c>
-      <c r="C89" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="D89" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="E89" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="F89" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H89" s="83" t="s">
+      <c r="C89" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E89" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F89" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H89" s="92" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17673,25 +17673,25 @@
       </c>
     </row>
     <row r="101" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="81" t="s">
+      <c r="B101" s="90" t="s">
         <v>382</v>
       </c>
-      <c r="C101" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="D101" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="E101" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="F101" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G101" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H101" s="83" t="s">
+      <c r="C101" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E101" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F101" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G101" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H101" s="92" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17866,25 +17866,25 @@
       </c>
     </row>
     <row r="108" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="81" t="s">
+      <c r="B108" s="90" t="s">
         <v>410</v>
       </c>
-      <c r="C108" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="D108" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="E108" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="F108" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G108" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H108" s="83" t="s">
+      <c r="C108" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D108" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E108" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F108" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G108" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H108" s="92" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18341,25 +18341,25 @@
       </c>
     </row>
     <row r="125" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="81" t="s">
+      <c r="B125" s="90" t="s">
         <v>469</v>
       </c>
-      <c r="C125" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="D125" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="E125" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="F125" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G125" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H125" s="83" t="s">
+      <c r="C125" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D125" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E125" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F125" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G125" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H125" s="92" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18704,25 +18704,25 @@
       </c>
     </row>
     <row r="138" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="81" t="s">
+      <c r="B138" s="90" t="s">
         <v>511</v>
       </c>
-      <c r="C138" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="D138" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="E138" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="F138" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G138" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H138" s="83" t="s">
+      <c r="C138" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D138" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E138" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F138" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G138" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H138" s="92" t="s">
         <v>22</v>
       </c>
     </row>
@@ -19095,25 +19095,25 @@
       </c>
     </row>
     <row r="153" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="81" t="s">
+      <c r="B153" s="90" t="s">
         <v>571</v>
       </c>
-      <c r="C153" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="D153" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="E153" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="F153" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G153" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H153" s="83" t="s">
+      <c r="C153" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D153" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E153" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F153" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G153" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H153" s="92" t="s">
         <v>22</v>
       </c>
     </row>
@@ -19526,25 +19526,25 @@
       <c r="I168" s="74"/>
     </row>
     <row r="169" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="81" t="s">
+      <c r="B169" s="90" t="s">
         <v>620</v>
       </c>
-      <c r="C169" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="D169" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="E169" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="F169" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G169" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H169" s="83" t="s">
+      <c r="C169" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D169" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E169" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F169" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G169" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H169" s="92" t="s">
         <v>22</v>
       </c>
     </row>
@@ -19910,25 +19910,25 @@
       </c>
     </row>
     <row r="183" spans="1:9" s="70" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="81" t="s">
+      <c r="B183" s="90" t="s">
         <v>667</v>
       </c>
-      <c r="C183" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="D183" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="E183" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="F183" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G183" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H183" s="83" t="s">
+      <c r="C183" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D183" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E183" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F183" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G183" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H183" s="92" t="s">
         <v>22</v>
       </c>
     </row>
@@ -20143,25 +20143,25 @@
       </c>
     </row>
     <row r="192" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="81" t="s">
+      <c r="B192" s="90" t="s">
         <v>691</v>
       </c>
-      <c r="C192" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="D192" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="E192" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="F192" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G192" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H192" s="83" t="s">
+      <c r="C192" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D192" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E192" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F192" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G192" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H192" s="92" t="s">
         <v>22</v>
       </c>
     </row>
@@ -20444,25 +20444,25 @@
       </c>
     </row>
     <row r="203" spans="1:9" s="70" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="81" t="s">
+      <c r="B203" s="90" t="s">
         <v>735</v>
       </c>
-      <c r="C203" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="D203" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="E203" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="F203" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G203" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H203" s="83" t="s">
+      <c r="C203" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D203" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E203" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F203" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G203" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H203" s="92" t="s">
         <v>22</v>
       </c>
     </row>
@@ -20857,25 +20857,25 @@
       </c>
     </row>
     <row r="218" spans="1:9" s="70" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B218" s="81" t="s">
+      <c r="B218" s="90" t="s">
         <v>792</v>
       </c>
-      <c r="C218" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="D218" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="E218" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="F218" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G218" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H218" s="83" t="s">
+      <c r="C218" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D218" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E218" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F218" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G218" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H218" s="92" t="s">
         <v>22</v>
       </c>
     </row>
@@ -21544,38 +21544,38 @@
       </c>
     </row>
     <row r="243" spans="1:9" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B243" s="81" t="s">
+      <c r="B243" s="90" t="s">
         <v>879</v>
       </c>
-      <c r="C243" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="D243" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="E243" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="F243" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G243" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H243" s="83" t="s">
+      <c r="C243" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D243" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E243" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F243" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G243" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H243" s="92" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="244" spans="1:9" s="71" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B244" s="86" t="s">
+      <c r="B244" s="82" t="s">
         <v>880</v>
       </c>
-      <c r="C244" s="87"/>
-      <c r="D244" s="87"/>
-      <c r="E244" s="87"/>
-      <c r="F244" s="87"/>
-      <c r="G244" s="87"/>
-      <c r="H244" s="88"/>
+      <c r="C244" s="83"/>
+      <c r="D244" s="83"/>
+      <c r="E244" s="83"/>
+      <c r="F244" s="83"/>
+      <c r="G244" s="83"/>
+      <c r="H244" s="84"/>
     </row>
     <row r="245" spans="1:9" s="71" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="71" t="s">
@@ -21779,15 +21779,15 @@
       </c>
     </row>
     <row r="252" spans="1:9" s="71" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B252" s="86" t="s">
+      <c r="B252" s="82" t="s">
         <v>907</v>
       </c>
-      <c r="C252" s="87"/>
-      <c r="D252" s="87"/>
-      <c r="E252" s="87"/>
-      <c r="F252" s="87"/>
-      <c r="G252" s="87"/>
-      <c r="H252" s="88"/>
+      <c r="C252" s="83"/>
+      <c r="D252" s="83"/>
+      <c r="E252" s="83"/>
+      <c r="F252" s="83"/>
+      <c r="G252" s="83"/>
+      <c r="H252" s="84"/>
     </row>
     <row r="253" spans="1:9" s="71" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A253" s="71" t="s">
@@ -21875,15 +21875,15 @@
       </c>
     </row>
     <row r="256" spans="1:9" s="71" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B256" s="86" t="s">
+      <c r="B256" s="82" t="s">
         <v>919</v>
       </c>
-      <c r="C256" s="87"/>
-      <c r="D256" s="87"/>
-      <c r="E256" s="87"/>
-      <c r="F256" s="87"/>
-      <c r="G256" s="87"/>
-      <c r="H256" s="88"/>
+      <c r="C256" s="83"/>
+      <c r="D256" s="83"/>
+      <c r="E256" s="83"/>
+      <c r="F256" s="83"/>
+      <c r="G256" s="83"/>
+      <c r="H256" s="84"/>
     </row>
     <row r="257" spans="1:9" s="71" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A257" s="71" t="s">
@@ -21915,15 +21915,15 @@
       </c>
     </row>
     <row r="258" spans="1:9" s="71" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B258" s="86" t="s">
+      <c r="B258" s="82" t="s">
         <v>923</v>
       </c>
-      <c r="C258" s="87"/>
-      <c r="D258" s="87"/>
-      <c r="E258" s="87"/>
-      <c r="F258" s="87"/>
-      <c r="G258" s="87"/>
-      <c r="H258" s="88"/>
+      <c r="C258" s="83"/>
+      <c r="D258" s="83"/>
+      <c r="E258" s="83"/>
+      <c r="F258" s="83"/>
+      <c r="G258" s="83"/>
+      <c r="H258" s="84"/>
     </row>
     <row r="259" spans="1:9" s="71" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A259" s="71" t="s">
@@ -22011,26 +22011,26 @@
       <c r="I261" s="74"/>
     </row>
     <row r="262" spans="1:9" s="71" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B262" s="86" t="s">
+      <c r="B262" s="82" t="s">
         <v>934</v>
       </c>
-      <c r="C262" s="87"/>
-      <c r="D262" s="87"/>
-      <c r="E262" s="87"/>
-      <c r="F262" s="87"/>
-      <c r="G262" s="87"/>
-      <c r="H262" s="88"/>
+      <c r="C262" s="83"/>
+      <c r="D262" s="83"/>
+      <c r="E262" s="83"/>
+      <c r="F262" s="83"/>
+      <c r="G262" s="83"/>
+      <c r="H262" s="84"/>
     </row>
     <row r="263" spans="1:9" s="71" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B263" s="89" t="s">
+      <c r="B263" s="85" t="s">
         <v>935</v>
       </c>
-      <c r="C263" s="90"/>
-      <c r="D263" s="90"/>
-      <c r="E263" s="90"/>
-      <c r="F263" s="90"/>
-      <c r="G263" s="90"/>
-      <c r="H263" s="91"/>
+      <c r="C263" s="86"/>
+      <c r="D263" s="86"/>
+      <c r="E263" s="86"/>
+      <c r="F263" s="86"/>
+      <c r="G263" s="86"/>
+      <c r="H263" s="87"/>
     </row>
     <row r="264" spans="1:9" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A264" s="71" t="s">
@@ -22116,15 +22116,15 @@
       </c>
     </row>
     <row r="267" spans="1:9" s="71" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B267" s="89" t="s">
+      <c r="B267" s="85" t="s">
         <v>947</v>
       </c>
-      <c r="C267" s="90"/>
-      <c r="D267" s="90"/>
-      <c r="E267" s="90"/>
-      <c r="F267" s="90"/>
-      <c r="G267" s="90"/>
-      <c r="H267" s="91"/>
+      <c r="C267" s="86"/>
+      <c r="D267" s="86"/>
+      <c r="E267" s="86"/>
+      <c r="F267" s="86"/>
+      <c r="G267" s="86"/>
+      <c r="H267" s="87"/>
     </row>
     <row r="268" spans="1:9" s="71" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A268" s="71" t="s">
@@ -22183,15 +22183,15 @@
       </c>
     </row>
     <row r="270" spans="1:9" s="71" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B270" s="89" t="s">
+      <c r="B270" s="85" t="s">
         <v>955</v>
       </c>
-      <c r="C270" s="90"/>
-      <c r="D270" s="90"/>
-      <c r="E270" s="90"/>
-      <c r="F270" s="90"/>
-      <c r="G270" s="90"/>
-      <c r="H270" s="91"/>
+      <c r="C270" s="86"/>
+      <c r="D270" s="86"/>
+      <c r="E270" s="86"/>
+      <c r="F270" s="86"/>
+      <c r="G270" s="86"/>
+      <c r="H270" s="87"/>
     </row>
     <row r="271" spans="1:9" s="71" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A271" s="71" t="s">
@@ -22329,52 +22329,70 @@
       </c>
     </row>
     <row r="276" spans="1:9" s="72" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B276" s="92" t="s">
+      <c r="B276" s="88" t="s">
         <v>972</v>
       </c>
-      <c r="C276" s="92"/>
-      <c r="D276" s="92"/>
-      <c r="E276" s="92"/>
-      <c r="F276" s="92"/>
-      <c r="G276" s="92"/>
-      <c r="H276" s="92"/>
+      <c r="C276" s="88"/>
+      <c r="D276" s="88"/>
+      <c r="E276" s="88"/>
+      <c r="F276" s="88"/>
+      <c r="G276" s="88"/>
+      <c r="H276" s="88"/>
     </row>
     <row r="277" spans="1:9" s="72" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B277" s="93" t="s">
+      <c r="B277" s="89" t="s">
         <v>973</v>
       </c>
-      <c r="C277" s="93"/>
-      <c r="D277" s="93"/>
-      <c r="E277" s="93"/>
-      <c r="F277" s="93"/>
-      <c r="G277" s="93"/>
-      <c r="H277" s="93"/>
+      <c r="C277" s="89"/>
+      <c r="D277" s="89"/>
+      <c r="E277" s="89"/>
+      <c r="F277" s="89"/>
+      <c r="G277" s="89"/>
+      <c r="H277" s="89"/>
     </row>
     <row r="278" spans="1:9" s="72" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B278" s="93" t="s">
+      <c r="B278" s="89" t="s">
         <v>974</v>
       </c>
-      <c r="C278" s="93"/>
-      <c r="D278" s="93"/>
-      <c r="E278" s="93"/>
-      <c r="F278" s="93"/>
-      <c r="G278" s="93"/>
-      <c r="H278" s="93"/>
+      <c r="C278" s="89"/>
+      <c r="D278" s="89"/>
+      <c r="E278" s="89"/>
+      <c r="F278" s="89"/>
+      <c r="G278" s="89"/>
+      <c r="H278" s="89"/>
     </row>
     <row r="279" spans="1:9" s="72" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B279" s="85" t="s">
+      <c r="B279" s="81" t="s">
         <v>975</v>
       </c>
-      <c r="C279" s="85"/>
-      <c r="D279" s="85"/>
-      <c r="E279" s="85"/>
-      <c r="F279" s="85"/>
-      <c r="G279" s="85"/>
-      <c r="H279" s="85"/>
+      <c r="C279" s="81"/>
+      <c r="D279" s="81"/>
+      <c r="E279" s="81"/>
+      <c r="F279" s="81"/>
+      <c r="G279" s="81"/>
+      <c r="H279" s="81"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:I279" xr:uid="{6B1B4B68-CDE7-4773-B6E3-1B4E74E676EC}"/>
   <mergeCells count="30">
+    <mergeCell ref="B74:H74"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B243:H243"/>
+    <mergeCell ref="B89:H89"/>
+    <mergeCell ref="B101:H101"/>
+    <mergeCell ref="B108:H108"/>
+    <mergeCell ref="B125:H125"/>
+    <mergeCell ref="B138:H138"/>
+    <mergeCell ref="B153:H153"/>
+    <mergeCell ref="B169:H169"/>
+    <mergeCell ref="B183:H183"/>
+    <mergeCell ref="B192:H192"/>
+    <mergeCell ref="B203:H203"/>
+    <mergeCell ref="B218:H218"/>
     <mergeCell ref="B279:H279"/>
     <mergeCell ref="B244:H244"/>
     <mergeCell ref="B252:H252"/>
@@ -22387,24 +22405,6 @@
     <mergeCell ref="B276:H276"/>
     <mergeCell ref="B277:H277"/>
     <mergeCell ref="B278:H278"/>
-    <mergeCell ref="B243:H243"/>
-    <mergeCell ref="B89:H89"/>
-    <mergeCell ref="B101:H101"/>
-    <mergeCell ref="B108:H108"/>
-    <mergeCell ref="B125:H125"/>
-    <mergeCell ref="B138:H138"/>
-    <mergeCell ref="B153:H153"/>
-    <mergeCell ref="B169:H169"/>
-    <mergeCell ref="B183:H183"/>
-    <mergeCell ref="B192:H192"/>
-    <mergeCell ref="B203:H203"/>
-    <mergeCell ref="B218:H218"/>
-    <mergeCell ref="B74:H74"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B61:H61"/>
   </mergeCells>
   <pageMargins left="0.1" right="0.1" top="0.25" bottom="0.25" header="0.05" footer="0.05"/>
   <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -22423,7 +22423,7 @@
   </sheetPr>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -22442,14 +22442,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="93" t="s">
         <v>1047</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
     </row>
     <row r="2" spans="1:13" s="10" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
@@ -22631,9 +22631,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22860,19 +22863,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB365EA7-6D7C-4914-BFB9-6D46B124F572}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0E031C4-B4FD-4645-82D1-7F57E6C194D9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22897,9 +22896,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0E031C4-B4FD-4645-82D1-7F57E6C194D9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB365EA7-6D7C-4914-BFB9-6D46B124F572}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>